--- a/Code/Results/Cases/Case_5_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_55/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9955010694031305</v>
+        <v>1.00323732151242</v>
       </c>
       <c r="D2">
-        <v>1.01479043132527</v>
+        <v>1.023855809029613</v>
       </c>
       <c r="E2">
-        <v>1.001530078428119</v>
+        <v>1.008453518249621</v>
       </c>
       <c r="F2">
-        <v>1.003100026960701</v>
+        <v>1.027887476321154</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043139262602073</v>
+        <v>1.044873443819642</v>
       </c>
       <c r="J2">
-        <v>1.017817180457492</v>
+        <v>1.025321634122479</v>
       </c>
       <c r="K2">
-        <v>1.026047486928567</v>
+        <v>1.03499250535162</v>
       </c>
       <c r="L2">
-        <v>1.01296813790775</v>
+        <v>1.019796325150129</v>
       </c>
       <c r="M2">
-        <v>1.014516341777153</v>
+        <v>1.038971499046533</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.050000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.004760261869895</v>
+        <v>1.011396406111457</v>
       </c>
       <c r="D3">
-        <v>1.022149071052958</v>
+        <v>1.030203561524114</v>
       </c>
       <c r="E3">
-        <v>1.009684299577773</v>
+        <v>1.015303962933098</v>
       </c>
       <c r="F3">
-        <v>1.012391012290977</v>
+        <v>1.034797971783062</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046677226876763</v>
+        <v>1.047305531772869</v>
       </c>
       <c r="J3">
-        <v>1.025121993204947</v>
+        <v>1.031581142401158</v>
       </c>
       <c r="K3">
-        <v>1.032506181954383</v>
+        <v>1.04046403441967</v>
       </c>
       <c r="L3">
-        <v>1.020194749595978</v>
+        <v>1.025744700999917</v>
       </c>
       <c r="M3">
-        <v>1.022867765206384</v>
+        <v>1.045004155023205</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010523802504171</v>
+        <v>1.016509459481931</v>
       </c>
       <c r="D4">
-        <v>1.026732079299883</v>
+        <v>1.034183983606757</v>
       </c>
       <c r="E4">
-        <v>1.014761004174896</v>
+        <v>1.019602883468152</v>
       </c>
       <c r="F4">
-        <v>1.018182130744054</v>
+        <v>1.039134257767561</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048863291625479</v>
+        <v>1.048816717281101</v>
       </c>
       <c r="J4">
-        <v>1.029662086221922</v>
+        <v>1.03550007642838</v>
       </c>
       <c r="K4">
-        <v>1.036518231683665</v>
+        <v>1.043886627173771</v>
       </c>
       <c r="L4">
-        <v>1.024684482304139</v>
+        <v>1.02947033862103</v>
       </c>
       <c r="M4">
-        <v>1.028065956487797</v>
+        <v>1.048782240204221</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.012896122455572</v>
+        <v>1.018621538347824</v>
       </c>
       <c r="D5">
-        <v>1.028618936359326</v>
+        <v>1.03582865897832</v>
       </c>
       <c r="E5">
-        <v>1.016850754428104</v>
+        <v>1.021379982219291</v>
       </c>
       <c r="F5">
-        <v>1.020567605449507</v>
+        <v>1.040926699378743</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049759133685489</v>
+        <v>1.049437771862264</v>
       </c>
       <c r="J5">
-        <v>1.031529096261319</v>
+        <v>1.037117920845614</v>
       </c>
       <c r="K5">
-        <v>1.03816754460907</v>
+        <v>1.045298814678434</v>
       </c>
       <c r="L5">
-        <v>1.026530361667523</v>
+        <v>1.031008732041576</v>
       </c>
       <c r="M5">
-        <v>1.030205436324007</v>
+        <v>1.050342184059721</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013291578173153</v>
+        <v>1.018974035221941</v>
       </c>
       <c r="D6">
-        <v>1.028933490167821</v>
+        <v>1.036103171488813</v>
       </c>
       <c r="E6">
-        <v>1.017199112464672</v>
+        <v>1.021676646876688</v>
       </c>
       <c r="F6">
-        <v>1.020965358358233</v>
+        <v>1.041225918513223</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049908231753738</v>
+        <v>1.049541234020537</v>
       </c>
       <c r="J6">
-        <v>1.031840215276424</v>
+        <v>1.037387872638054</v>
       </c>
       <c r="K6">
-        <v>1.038442353181956</v>
+        <v>1.045534405547845</v>
       </c>
       <c r="L6">
-        <v>1.026837934698351</v>
+        <v>1.031265446816851</v>
       </c>
       <c r="M6">
-        <v>1.030562068634653</v>
+        <v>1.050602488059431</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.010555695887849</v>
+        <v>1.016537825328788</v>
       </c>
       <c r="D7">
-        <v>1.026757444522105</v>
+        <v>1.034206070438906</v>
       </c>
       <c r="E7">
-        <v>1.014789098275773</v>
+        <v>1.019626745350675</v>
       </c>
       <c r="F7">
-        <v>1.018214193910324</v>
+        <v>1.039158326108593</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04887535108682</v>
+        <v>1.048825070916964</v>
       </c>
       <c r="J7">
-        <v>1.029687193181693</v>
+        <v>1.035521808514638</v>
       </c>
       <c r="K7">
-        <v>1.036540413349457</v>
+        <v>1.043905599749488</v>
       </c>
       <c r="L7">
-        <v>1.024709306774876</v>
+        <v>1.029491002102833</v>
       </c>
       <c r="M7">
-        <v>1.028094720207939</v>
+        <v>1.048803193600729</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9986798844046676</v>
+        <v>1.006030692351061</v>
       </c>
       <c r="D8">
-        <v>1.017316133691271</v>
+        <v>1.026028436358622</v>
       </c>
       <c r="E8">
-        <v>1.004329271757243</v>
+        <v>1.010797530280936</v>
       </c>
       <c r="F8">
-        <v>1.006288060829303</v>
+        <v>1.030252085949174</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044357289912308</v>
+        <v>1.045708785171541</v>
       </c>
       <c r="J8">
-        <v>1.020326449833452</v>
+        <v>1.027465391723944</v>
       </c>
       <c r="K8">
-        <v>1.028266546315751</v>
+        <v>1.036867010719687</v>
       </c>
       <c r="L8">
-        <v>1.015450917919959</v>
+        <v>1.021833201859352</v>
       </c>
       <c r="M8">
-        <v>1.017383524727933</v>
+        <v>1.041037291334879</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9758083389941532</v>
+        <v>0.986120685051064</v>
       </c>
       <c r="D9">
-        <v>0.9991618222889086</v>
+        <v>1.010559905067214</v>
       </c>
       <c r="E9">
-        <v>0.9841981169485843</v>
+        <v>0.9941213911578934</v>
       </c>
       <c r="F9">
-        <v>0.9833877173004076</v>
+        <v>1.013429281678392</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035525650643141</v>
+        <v>1.039702160535596</v>
       </c>
       <c r="J9">
-        <v>1.002245272916798</v>
+        <v>1.012173260859434</v>
       </c>
       <c r="K9">
-        <v>1.012268512995205</v>
+        <v>1.023483947384387</v>
       </c>
       <c r="L9">
-        <v>0.9975528793070386</v>
+        <v>1.007310570211101</v>
       </c>
       <c r="M9">
-        <v>0.9967561927624324</v>
+        <v>1.026308171825566</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9589193583936486</v>
+        <v>0.9717165942470927</v>
       </c>
       <c r="D10">
-        <v>0.9857891797353177</v>
+        <v>0.9993991219491739</v>
       </c>
       <c r="E10">
-        <v>0.9693509389986146</v>
+        <v>0.9821034629270975</v>
       </c>
       <c r="F10">
-        <v>0.9665305271495153</v>
+        <v>1.001307110692217</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028920586573443</v>
+        <v>1.035293319397891</v>
       </c>
       <c r="J10">
-        <v>0.9888633123325598</v>
+        <v>1.001099116579214</v>
       </c>
       <c r="K10">
-        <v>1.000419844449391</v>
+        <v>1.013779233916486</v>
       </c>
       <c r="L10">
-        <v>0.9842965356060021</v>
+        <v>0.9968035419640342</v>
       </c>
       <c r="M10">
-        <v>0.981531572797137</v>
+        <v>1.015652804888784</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9511219688053721</v>
+        <v>0.9651595177472441</v>
       </c>
       <c r="D11">
-        <v>0.9796267712305812</v>
+        <v>0.9943286325612074</v>
       </c>
       <c r="E11">
-        <v>0.9625031219000036</v>
+        <v>0.9766461958853098</v>
       </c>
       <c r="F11">
-        <v>0.9587621924543831</v>
+        <v>0.9958034510235394</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025852890029761</v>
+        <v>1.033272849071275</v>
       </c>
       <c r="J11">
-        <v>0.9826796326580529</v>
+        <v>0.9960571289321929</v>
       </c>
       <c r="K11">
-        <v>0.9949434031098766</v>
+        <v>1.00935830100159</v>
       </c>
       <c r="L11">
-        <v>0.9781685981342761</v>
+        <v>0.9920223913197996</v>
       </c>
       <c r="M11">
-        <v>0.9745060740577692</v>
+        <v>1.010804944435044</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9481427882558952</v>
+        <v>0.9626706304856782</v>
       </c>
       <c r="D12">
-        <v>0.9772743873153633</v>
+        <v>0.9924058352849245</v>
       </c>
       <c r="E12">
-        <v>0.9598880545136015</v>
+        <v>0.9745770521014226</v>
       </c>
       <c r="F12">
-        <v>0.9557964539376759</v>
+        <v>0.9937169181090523</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024678232287566</v>
+        <v>1.03250406517508</v>
       </c>
       <c r="J12">
-        <v>0.9803163803824981</v>
+        <v>0.9941433897881156</v>
       </c>
       <c r="K12">
-        <v>0.9928503211712605</v>
+        <v>1.007679988214765</v>
       </c>
       <c r="L12">
-        <v>0.9758263119499337</v>
+        <v>0.9902080797860622</v>
       </c>
       <c r="M12">
-        <v>0.971822521317287</v>
+        <v>1.008965490209313</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9487857683857071</v>
+        <v>0.9632070095992921</v>
       </c>
       <c r="D13">
-        <v>0.9777819874045393</v>
+        <v>0.9928201292140163</v>
       </c>
       <c r="E13">
-        <v>0.9604523863906194</v>
+        <v>0.975022865040689</v>
       </c>
       <c r="F13">
-        <v>0.9564364242190845</v>
+        <v>0.9941664675770727</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024931864993738</v>
+        <v>1.03266982710179</v>
       </c>
       <c r="J13">
-        <v>0.9808264530515723</v>
+        <v>0.9945558130452765</v>
       </c>
       <c r="K13">
-        <v>0.9933020856725062</v>
+        <v>1.00804168803108</v>
       </c>
       <c r="L13">
-        <v>0.9763318744096642</v>
+        <v>0.9905990561062293</v>
       </c>
       <c r="M13">
-        <v>0.9724016624644248</v>
+        <v>1.009361875997925</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.950877465503288</v>
+        <v>0.964954905819725</v>
       </c>
       <c r="D14">
-        <v>0.9794336644327488</v>
+        <v>0.9941705202575988</v>
       </c>
       <c r="E14">
-        <v>0.9622884734815199</v>
+        <v>0.9764760433144254</v>
       </c>
       <c r="F14">
-        <v>0.9585187438823042</v>
+        <v>0.9956318640494065</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025756535977173</v>
+        <v>1.033209684090101</v>
       </c>
       <c r="J14">
-        <v>0.9824856905003512</v>
+        <v>0.9958997976845793</v>
       </c>
       <c r="K14">
-        <v>0.9947716346361588</v>
+        <v>1.009220330199704</v>
       </c>
       <c r="L14">
-        <v>0.9779763833253247</v>
+        <v>0.9918732253864087</v>
       </c>
       <c r="M14">
-        <v>0.9742858176216361</v>
+        <v>1.010653707553926</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9521549086885317</v>
+        <v>0.9660246103571396</v>
       </c>
       <c r="D15">
-        <v>0.9804426670141549</v>
+        <v>0.9949972020841775</v>
       </c>
       <c r="E15">
-        <v>0.9634099900654697</v>
+        <v>0.9773656897857674</v>
       </c>
       <c r="F15">
-        <v>0.9597907723896464</v>
+        <v>0.9965290188561731</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026259848817605</v>
+        <v>1.033539833685028</v>
       </c>
       <c r="J15">
-        <v>0.9834989453647325</v>
+        <v>0.9967223239870799</v>
       </c>
       <c r="K15">
-        <v>0.9956690382728967</v>
+        <v>1.009941628439687</v>
       </c>
       <c r="L15">
-        <v>0.9789806000339564</v>
+        <v>0.9926530809021271</v>
       </c>
       <c r="M15">
-        <v>0.9754366093761838</v>
+        <v>1.011444397513269</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9594258227003355</v>
+        <v>0.9721445956923347</v>
       </c>
       <c r="D16">
-        <v>0.9861897139248487</v>
+        <v>0.9997303226936464</v>
       </c>
       <c r="E16">
-        <v>0.969795888592312</v>
+        <v>0.982459976376006</v>
       </c>
       <c r="F16">
-        <v>0.9670354135954434</v>
+        <v>1.001666679158144</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029119482166775</v>
+        <v>1.035424936567269</v>
       </c>
       <c r="J16">
-        <v>0.9892648646901073</v>
+        <v>1.001428221661324</v>
       </c>
       <c r="K16">
-        <v>1.000775450143131</v>
+        <v>1.01406775588723</v>
       </c>
       <c r="L16">
-        <v>0.9846944216046459</v>
+        <v>0.9971156781183955</v>
       </c>
       <c r="M16">
-        <v>0.9819879865298449</v>
+        <v>1.015969316789241</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9638504677207577</v>
+        <v>0.9758943783703116</v>
       </c>
       <c r="D17">
-        <v>0.9896902433501388</v>
+        <v>1.002633194297097</v>
       </c>
       <c r="E17">
-        <v>0.9736839170066568</v>
+        <v>0.9855849949679828</v>
       </c>
       <c r="F17">
-        <v>0.9714478964469706</v>
+        <v>1.004818588992985</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030855083961143</v>
+        <v>1.036576555965021</v>
       </c>
       <c r="J17">
-        <v>0.9927723759036143</v>
+        <v>1.004311490160805</v>
       </c>
       <c r="K17">
-        <v>1.003881487416985</v>
+        <v>1.016595211067152</v>
       </c>
       <c r="L17">
-        <v>0.9881696511987104</v>
+        <v>0.9998505820251179</v>
       </c>
       <c r="M17">
-        <v>0.985975779453822</v>
+        <v>1.018742655111761</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9663853345550469</v>
+        <v>0.9780510779195148</v>
       </c>
       <c r="D18">
-        <v>0.991696730817059</v>
+        <v>1.004303720251545</v>
       </c>
       <c r="E18">
-        <v>0.9759119788465666</v>
+        <v>0.9873836125791092</v>
       </c>
       <c r="F18">
-        <v>0.9739771168789255</v>
+        <v>1.006632768224205</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031847700941119</v>
+        <v>1.037237642374172</v>
       </c>
       <c r="J18">
-        <v>0.9947813020929051</v>
+        <v>1.005969725605071</v>
       </c>
       <c r="K18">
-        <v>1.005660345436917</v>
+        <v>1.018048577099909</v>
       </c>
       <c r="L18">
-        <v>0.9901598736286261</v>
+        <v>1.001423733908516</v>
       </c>
       <c r="M18">
-        <v>0.9882606845724858</v>
+        <v>1.020337985264948</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9672421394551773</v>
+        <v>0.9787814319605952</v>
       </c>
       <c r="D19">
-        <v>0.9923751063618659</v>
+        <v>1.004869584021773</v>
       </c>
       <c r="E19">
-        <v>0.9766651795423876</v>
+        <v>0.98799291003074</v>
       </c>
       <c r="F19">
-        <v>0.9748322326002055</v>
+        <v>1.007247349984536</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032182919631654</v>
+        <v>1.037461295652815</v>
       </c>
       <c r="J19">
-        <v>0.9954602422506418</v>
+        <v>1.006531258180988</v>
       </c>
       <c r="K19">
-        <v>1.006261508342747</v>
+        <v>1.018540692937191</v>
       </c>
       <c r="L19">
-        <v>0.990832456048512</v>
+        <v>1.001956495093924</v>
       </c>
       <c r="M19">
-        <v>0.9890330480895921</v>
+        <v>1.020878267779746</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9633805651116911</v>
+        <v>0.9754952506433674</v>
       </c>
       <c r="D20">
-        <v>0.9893183717560128</v>
+        <v>1.002324113297148</v>
       </c>
       <c r="E20">
-        <v>0.9732709373043207</v>
+        <v>0.9852522353206251</v>
       </c>
       <c r="F20">
-        <v>0.9709791467003327</v>
+        <v>1.004482956748743</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030670937388066</v>
+        <v>1.036454108500289</v>
       </c>
       <c r="J20">
-        <v>0.9923999266716016</v>
+        <v>1.004004602126794</v>
       </c>
       <c r="K20">
-        <v>1.003551681614323</v>
+        <v>1.016326218710341</v>
       </c>
       <c r="L20">
-        <v>0.9878006521171394</v>
+        <v>0.9995594599485572</v>
       </c>
       <c r="M20">
-        <v>0.9855522376218276</v>
+        <v>1.018447434147602</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9502638924458598</v>
+        <v>0.9644417111255912</v>
       </c>
       <c r="D21">
-        <v>0.9789491045150011</v>
+        <v>0.9937739833297722</v>
       </c>
       <c r="E21">
-        <v>0.9617498422337791</v>
+        <v>0.9760493150232443</v>
       </c>
       <c r="F21">
-        <v>0.9579078558538054</v>
+        <v>0.9952015418383673</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025514698026244</v>
+        <v>1.033051228215517</v>
       </c>
       <c r="J21">
-        <v>0.9819989896015958</v>
+        <v>0.9955051910440612</v>
       </c>
       <c r="K21">
-        <v>0.9943405773081403</v>
+        <v>1.008874277393199</v>
       </c>
       <c r="L21">
-        <v>0.9774940118644805</v>
+        <v>0.9914991053058192</v>
       </c>
       <c r="M21">
-        <v>0.9737331033351491</v>
+        <v>1.010274396323779</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9415307339876141</v>
+        <v>0.9571803492033253</v>
       </c>
       <c r="D22">
-        <v>0.9720578565741734</v>
+        <v>0.988168031992535</v>
       </c>
       <c r="E22">
-        <v>0.9540868883998219</v>
+        <v>0.9700172171881456</v>
       </c>
       <c r="F22">
-        <v>0.9492188026695945</v>
+        <v>0.989119205874329</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.022066626032284</v>
+        <v>1.030804927827371</v>
       </c>
       <c r="J22">
-        <v>0.9750704066571735</v>
+        <v>0.9899221728603846</v>
       </c>
       <c r="K22">
-        <v>0.9882039467193985</v>
+        <v>1.003977583803942</v>
       </c>
       <c r="L22">
-        <v>0.9706262679556781</v>
+        <v>0.9862069937495103</v>
       </c>
       <c r="M22">
-        <v>0.9658681411276315</v>
+        <v>1.004909339613392</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9462103849027854</v>
+        <v>0.9610612280060954</v>
       </c>
       <c r="D23">
-        <v>0.9757491960257746</v>
+        <v>0.9911630408394686</v>
       </c>
       <c r="E23">
-        <v>0.9581922347459511</v>
+        <v>0.9732397489069317</v>
       </c>
       <c r="F23">
-        <v>0.9538734554120681</v>
+        <v>0.992368440911636</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023915606030014</v>
+        <v>1.03200643650897</v>
       </c>
       <c r="J23">
-        <v>0.978783339543261</v>
+        <v>0.9929059403691867</v>
       </c>
       <c r="K23">
-        <v>0.991492516413375</v>
+        <v>1.006594692474575</v>
       </c>
       <c r="L23">
-        <v>0.9743067781858002</v>
+        <v>0.9890350451481108</v>
       </c>
       <c r="M23">
-        <v>0.970082098919464</v>
+        <v>1.0077762553644</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9635930351397298</v>
+        <v>0.9756756931059435</v>
       </c>
       <c r="D24">
-        <v>0.9894865130942839</v>
+        <v>1.002463843482936</v>
       </c>
       <c r="E24">
-        <v>0.9734576672936528</v>
+        <v>0.9854026694261149</v>
       </c>
       <c r="F24">
-        <v>0.9711910913519943</v>
+        <v>1.004634689241366</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030754205976675</v>
+        <v>1.03650946998539</v>
       </c>
       <c r="J24">
-        <v>0.9925683340400722</v>
+        <v>1.004143344039089</v>
       </c>
       <c r="K24">
-        <v>1.003700807638563</v>
+        <v>1.016447828983109</v>
       </c>
       <c r="L24">
-        <v>0.9879675001273303</v>
+        <v>0.999691073425178</v>
       </c>
       <c r="M24">
-        <v>0.98574374432217</v>
+        <v>1.018580900477008</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9819826932809732</v>
+        <v>0.9914515673217974</v>
       </c>
       <c r="D25">
-        <v>1.004058223174499</v>
+        <v>1.014697369219349</v>
       </c>
       <c r="E25">
-        <v>0.9896303364729241</v>
+        <v>0.9985792437972044</v>
       </c>
       <c r="F25">
-        <v>0.9895614418058034</v>
+        <v>1.017926268259925</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037924283900812</v>
+        <v>1.041321611833975</v>
       </c>
       <c r="J25">
-        <v>1.007132006706477</v>
+        <v>1.016270085310272</v>
       </c>
       <c r="K25">
-        <v>1.016593865425748</v>
+        <v>1.027071732711012</v>
       </c>
       <c r="L25">
-        <v>1.002391789698021</v>
+        <v>1.011199655286174</v>
       </c>
       <c r="M25">
-        <v>1.002323993546052</v>
+        <v>1.030252532594112</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_55/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.00323732151242</v>
+        <v>1.046306042632583</v>
       </c>
       <c r="D2">
-        <v>1.023855809029613</v>
+        <v>1.059641412703589</v>
       </c>
       <c r="E2">
-        <v>1.008453518249621</v>
+        <v>1.055537555504043</v>
       </c>
       <c r="F2">
-        <v>1.027887476321154</v>
+        <v>1.06519103420111</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044873443819642</v>
+        <v>1.063542724059405</v>
       </c>
       <c r="J2">
-        <v>1.025321634122479</v>
+        <v>1.067184767078957</v>
       </c>
       <c r="K2">
-        <v>1.03499250535162</v>
+        <v>1.070327976258847</v>
       </c>
       <c r="L2">
-        <v>1.019796325150129</v>
+        <v>1.066273813859486</v>
       </c>
       <c r="M2">
-        <v>1.038971499046533</v>
+        <v>1.075811150796911</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.011396406111457</v>
+        <v>1.052385847850934</v>
       </c>
       <c r="D3">
-        <v>1.030203561524114</v>
+        <v>1.064508148553448</v>
       </c>
       <c r="E3">
-        <v>1.015303962933098</v>
+        <v>1.060721018671387</v>
       </c>
       <c r="F3">
-        <v>1.034797971783062</v>
+        <v>1.070644068464071</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047305531772869</v>
+        <v>1.065780556620062</v>
       </c>
       <c r="J3">
-        <v>1.031581142401158</v>
+        <v>1.071543600505059</v>
       </c>
       <c r="K3">
-        <v>1.04046403441967</v>
+        <v>1.0743771693819</v>
       </c>
       <c r="L3">
-        <v>1.025744700999917</v>
+        <v>1.070631725687453</v>
       </c>
       <c r="M3">
-        <v>1.045004155023205</v>
+        <v>1.080446316947012</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016509459481931</v>
+        <v>1.056225426263925</v>
       </c>
       <c r="D4">
-        <v>1.034183983606757</v>
+        <v>1.067584238665376</v>
       </c>
       <c r="E4">
-        <v>1.019602883468152</v>
+        <v>1.063999549422822</v>
       </c>
       <c r="F4">
-        <v>1.039134257767561</v>
+        <v>1.074093487531473</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048816717281101</v>
+        <v>1.067184141770042</v>
       </c>
       <c r="J4">
-        <v>1.03550007642838</v>
+        <v>1.074292586922344</v>
       </c>
       <c r="K4">
-        <v>1.043886627173771</v>
+        <v>1.076930070738388</v>
       </c>
       <c r="L4">
-        <v>1.02947033862103</v>
+        <v>1.073382366146507</v>
       </c>
       <c r="M4">
-        <v>1.048782240204221</v>
+        <v>1.083372929636259</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018621538347824</v>
+        <v>1.057817984087046</v>
       </c>
       <c r="D5">
-        <v>1.03582865897832</v>
+        <v>1.068860682437092</v>
       </c>
       <c r="E5">
-        <v>1.021379982219291</v>
+        <v>1.06536054604485</v>
       </c>
       <c r="F5">
-        <v>1.040926699378743</v>
+        <v>1.075525519822867</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049437771862264</v>
+        <v>1.067763949697927</v>
       </c>
       <c r="J5">
-        <v>1.037117920845614</v>
+        <v>1.075431852522659</v>
       </c>
       <c r="K5">
-        <v>1.045298814678434</v>
+        <v>1.077987869623799</v>
       </c>
       <c r="L5">
-        <v>1.031008732041576</v>
+        <v>1.074522848644559</v>
       </c>
       <c r="M5">
-        <v>1.050342184059721</v>
+        <v>1.084586608619853</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018974035221941</v>
+        <v>1.0580841431305</v>
       </c>
       <c r="D6">
-        <v>1.036103171488813</v>
+        <v>1.069074041580987</v>
       </c>
       <c r="E6">
-        <v>1.021676646876688</v>
+        <v>1.065588070830565</v>
       </c>
       <c r="F6">
-        <v>1.041225918513223</v>
+        <v>1.075764925737996</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049541234020537</v>
+        <v>1.067860711002795</v>
       </c>
       <c r="J6">
-        <v>1.037387872638054</v>
+        <v>1.075622197626393</v>
       </c>
       <c r="K6">
-        <v>1.045534405547845</v>
+        <v>1.078164591292555</v>
       </c>
       <c r="L6">
-        <v>1.031265446816851</v>
+        <v>1.074713428177885</v>
       </c>
       <c r="M6">
-        <v>1.050602488059431</v>
+        <v>1.084789433380789</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.016537825328788</v>
+        <v>1.056246789683097</v>
       </c>
       <c r="D7">
-        <v>1.034206070438906</v>
+        <v>1.067601359424698</v>
       </c>
       <c r="E7">
-        <v>1.019626745350675</v>
+        <v>1.064017802096392</v>
       </c>
       <c r="F7">
-        <v>1.039158326108593</v>
+        <v>1.074112692499362</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048825070916964</v>
+        <v>1.067191929017988</v>
       </c>
       <c r="J7">
-        <v>1.035521808514638</v>
+        <v>1.07430787342198</v>
       </c>
       <c r="K7">
-        <v>1.043905599749488</v>
+        <v>1.076944264945113</v>
       </c>
       <c r="L7">
-        <v>1.029491002102833</v>
+        <v>1.073397666878903</v>
       </c>
       <c r="M7">
-        <v>1.048803193600729</v>
+        <v>1.08338921144764</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.006030692351061</v>
+        <v>1.048380931513527</v>
       </c>
       <c r="D8">
-        <v>1.026028436358622</v>
+        <v>1.061301724191361</v>
       </c>
       <c r="E8">
-        <v>1.010797530280936</v>
+        <v>1.057305453423086</v>
       </c>
       <c r="F8">
-        <v>1.030252085949174</v>
+        <v>1.067050794654364</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045708785171541</v>
+        <v>1.06430844885324</v>
       </c>
       <c r="J8">
-        <v>1.027465391723944</v>
+        <v>1.068673090566405</v>
       </c>
       <c r="K8">
-        <v>1.036867010719687</v>
+        <v>1.071710736024545</v>
       </c>
       <c r="L8">
-        <v>1.021833201859352</v>
+        <v>1.067761349151083</v>
       </c>
       <c r="M8">
-        <v>1.041037291334879</v>
+        <v>1.077393119831598</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.986120685051064</v>
+        <v>1.033747651420025</v>
       </c>
       <c r="D9">
-        <v>1.010559905067214</v>
+        <v>1.04960618905033</v>
       </c>
       <c r="E9">
-        <v>0.9941213911578934</v>
+        <v>1.044861262796598</v>
       </c>
       <c r="F9">
-        <v>1.013429281678392</v>
+        <v>1.053961480002178</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039702160535596</v>
+        <v>1.058868586913266</v>
       </c>
       <c r="J9">
-        <v>1.012173260859434</v>
+        <v>1.058162500895924</v>
       </c>
       <c r="K9">
-        <v>1.023483947384387</v>
+        <v>1.061942630465893</v>
       </c>
       <c r="L9">
-        <v>1.007310570211101</v>
+        <v>1.057266137305213</v>
       </c>
       <c r="M9">
-        <v>1.026308171825566</v>
+        <v>1.066235793724297</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9717165942470927</v>
+        <v>1.023397673315443</v>
       </c>
       <c r="D10">
-        <v>0.9993991219491739</v>
+        <v>1.041355163828508</v>
       </c>
       <c r="E10">
-        <v>0.9821034629270975</v>
+        <v>1.036093346528463</v>
       </c>
       <c r="F10">
-        <v>1.001307110692217</v>
+        <v>1.044740754939982</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035293319397891</v>
+        <v>1.054972715809764</v>
       </c>
       <c r="J10">
-        <v>1.001099116579214</v>
+        <v>1.050712773406973</v>
       </c>
       <c r="K10">
-        <v>1.013779233916486</v>
+        <v>1.055015834219211</v>
       </c>
       <c r="L10">
-        <v>0.9968035419640342</v>
+        <v>1.049840132861097</v>
       </c>
       <c r="M10">
-        <v>1.015652804888784</v>
+        <v>1.058346604659186</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9651595177472441</v>
+        <v>1.018756217858978</v>
       </c>
       <c r="D11">
-        <v>0.9943286325612074</v>
+        <v>1.037661178618391</v>
       </c>
       <c r="E11">
-        <v>0.9766461958853098</v>
+        <v>1.032170471483293</v>
       </c>
       <c r="F11">
-        <v>0.9958034510235394</v>
+        <v>1.040615640329022</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033272849071275</v>
+        <v>1.053214869258134</v>
       </c>
       <c r="J11">
-        <v>0.9960571289321929</v>
+        <v>1.047369010059594</v>
       </c>
       <c r="K11">
-        <v>1.00935830100159</v>
+        <v>1.051906171541882</v>
       </c>
       <c r="L11">
-        <v>0.9920223913197996</v>
+        <v>1.04651017337219</v>
       </c>
       <c r="M11">
-        <v>1.010804944435044</v>
+        <v>1.054810205882609</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9626706304856782</v>
+        <v>1.017006375175367</v>
       </c>
       <c r="D12">
-        <v>0.9924058352849245</v>
+        <v>1.036269574992143</v>
       </c>
       <c r="E12">
-        <v>0.9745770521014226</v>
+        <v>1.030693005127137</v>
       </c>
       <c r="F12">
-        <v>0.9937169181090523</v>
+        <v>1.03906205250136</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03250406517508</v>
+        <v>1.052550609138244</v>
       </c>
       <c r="J12">
-        <v>0.9941433897881156</v>
+        <v>1.04610803514649</v>
       </c>
       <c r="K12">
-        <v>1.007679988214765</v>
+        <v>1.050733402897169</v>
       </c>
       <c r="L12">
-        <v>0.9902080797860622</v>
+        <v>1.04525488886251</v>
       </c>
       <c r="M12">
-        <v>1.008965490209313</v>
+        <v>1.053477290555707</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9632070095992921</v>
+        <v>1.017382920406964</v>
       </c>
       <c r="D13">
-        <v>0.9928201292140163</v>
+        <v>1.036568982650845</v>
       </c>
       <c r="E13">
-        <v>0.975022865040689</v>
+        <v>1.03101087015698</v>
       </c>
       <c r="F13">
-        <v>0.9941664675770727</v>
+        <v>1.039396292388752</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03266982710179</v>
+        <v>1.052693618696453</v>
       </c>
       <c r="J13">
-        <v>0.9945558130452765</v>
+        <v>1.046379397162652</v>
       </c>
       <c r="K13">
-        <v>1.00804168803108</v>
+        <v>1.050985786069956</v>
       </c>
       <c r="L13">
-        <v>0.9905990561062293</v>
+        <v>1.045525004228926</v>
       </c>
       <c r="M13">
-        <v>1.009361875997925</v>
+        <v>1.053764102134423</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.964954905819725</v>
+        <v>1.018612112552546</v>
       </c>
       <c r="D14">
-        <v>0.9941705202575988</v>
+        <v>1.037546553702781</v>
       </c>
       <c r="E14">
-        <v>0.9764760433144254</v>
+        <v>1.032048766816581</v>
       </c>
       <c r="F14">
-        <v>0.9956318640494065</v>
+        <v>1.040487664302503</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033209684090101</v>
+        <v>1.053160196251641</v>
       </c>
       <c r="J14">
-        <v>0.9958997976845793</v>
+        <v>1.047265171611415</v>
       </c>
       <c r="K14">
-        <v>1.009220330199704</v>
+        <v>1.051809598127621</v>
       </c>
       <c r="L14">
-        <v>0.9918732253864087</v>
+        <v>1.04640679360838</v>
       </c>
       <c r="M14">
-        <v>1.010653707553926</v>
+        <v>1.054700428922497</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9660246103571396</v>
+        <v>1.019365983409298</v>
       </c>
       <c r="D15">
-        <v>0.9949972020841775</v>
+        <v>1.038146244184523</v>
       </c>
       <c r="E15">
-        <v>0.9773656897857674</v>
+        <v>1.032685511660796</v>
       </c>
       <c r="F15">
-        <v>0.9965290188561731</v>
+        <v>1.041157222091634</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033539833685028</v>
+        <v>1.05344614944342</v>
       </c>
       <c r="J15">
-        <v>0.9967223239870799</v>
+        <v>1.04780837643687</v>
       </c>
       <c r="K15">
-        <v>1.009941628439687</v>
+        <v>1.052314794753385</v>
       </c>
       <c r="L15">
-        <v>0.9926530809021271</v>
+        <v>1.04694761874023</v>
       </c>
       <c r="M15">
-        <v>1.011444397513269</v>
+        <v>1.055274728345553</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9721445956923347</v>
+        <v>1.023702195219891</v>
       </c>
       <c r="D16">
-        <v>0.9997303226936464</v>
+        <v>1.041597660704994</v>
       </c>
       <c r="E16">
-        <v>0.982459976376006</v>
+        <v>1.03635092047903</v>
       </c>
       <c r="F16">
-        <v>1.001666679158144</v>
+        <v>1.045011614731562</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035424936567269</v>
+        <v>1.055087829029268</v>
       </c>
       <c r="J16">
-        <v>1.001428221661324</v>
+        <v>1.050932100117846</v>
       </c>
       <c r="K16">
-        <v>1.01406775588723</v>
+        <v>1.055219794209685</v>
       </c>
       <c r="L16">
-        <v>0.9971156781183955</v>
+        <v>1.05005862055229</v>
       </c>
       <c r="M16">
-        <v>1.015969316789241</v>
+        <v>1.058578663632388</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9758943783703116</v>
+        <v>1.026378184020138</v>
       </c>
       <c r="D17">
-        <v>1.002633194297097</v>
+        <v>1.043729318707515</v>
       </c>
       <c r="E17">
-        <v>0.9855849949679828</v>
+        <v>1.038615397507556</v>
       </c>
       <c r="F17">
-        <v>1.004818588992985</v>
+        <v>1.04739293447484</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036576555965021</v>
+        <v>1.056098177147627</v>
       </c>
       <c r="J17">
-        <v>1.004311490160805</v>
+        <v>1.052859111825439</v>
       </c>
       <c r="K17">
-        <v>1.016595211067152</v>
+        <v>1.057011725685461</v>
       </c>
       <c r="L17">
-        <v>0.9998505820251179</v>
+        <v>1.051978619502188</v>
       </c>
       <c r="M17">
-        <v>1.018742655111761</v>
+        <v>1.060618065684315</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9780510779195148</v>
+        <v>1.027923749403343</v>
       </c>
       <c r="D18">
-        <v>1.004303720251545</v>
+        <v>1.044961073613442</v>
       </c>
       <c r="E18">
-        <v>0.9873836125791092</v>
+        <v>1.039924139922848</v>
       </c>
       <c r="F18">
-        <v>1.006632768224205</v>
+        <v>1.048769239248052</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037237642374172</v>
+        <v>1.05668070251655</v>
       </c>
       <c r="J18">
-        <v>1.005969725605071</v>
+        <v>1.053971810356129</v>
       </c>
       <c r="K18">
-        <v>1.018048577099909</v>
+        <v>1.058046366878512</v>
       </c>
       <c r="L18">
-        <v>1.001423733908516</v>
+        <v>1.05308756598789</v>
       </c>
       <c r="M18">
-        <v>1.020337985264948</v>
+        <v>1.061796095751709</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9787814319605952</v>
+        <v>1.028448204618311</v>
       </c>
       <c r="D19">
-        <v>1.004869584021773</v>
+        <v>1.045379138674716</v>
       </c>
       <c r="E19">
-        <v>0.98799291003074</v>
+        <v>1.040368376038329</v>
       </c>
       <c r="F19">
-        <v>1.007247349984536</v>
+        <v>1.049236414428745</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037461295652815</v>
+        <v>1.056878195474089</v>
       </c>
       <c r="J19">
-        <v>1.006531258180988</v>
+        <v>1.054349331398036</v>
       </c>
       <c r="K19">
-        <v>1.018540692937191</v>
+        <v>1.058397393816376</v>
       </c>
       <c r="L19">
-        <v>1.001956495093924</v>
+        <v>1.053463864145709</v>
       </c>
       <c r="M19">
-        <v>1.020878267779746</v>
+        <v>1.062195856199517</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9754952506433674</v>
+        <v>1.026092669985184</v>
       </c>
       <c r="D20">
-        <v>1.002324113297148</v>
+        <v>1.043501821211775</v>
       </c>
       <c r="E20">
-        <v>0.9852522353206251</v>
+        <v>1.038373700365126</v>
       </c>
       <c r="F20">
-        <v>1.004482956748743</v>
+        <v>1.047138762753695</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036454108500289</v>
+        <v>1.055990483652963</v>
       </c>
       <c r="J20">
-        <v>1.004004602126794</v>
+        <v>1.052653538477481</v>
       </c>
       <c r="K20">
-        <v>1.016326218710341</v>
+        <v>1.056820568700847</v>
       </c>
       <c r="L20">
-        <v>0.9995594599485572</v>
+        <v>1.05177376333353</v>
       </c>
       <c r="M20">
-        <v>1.018447434147602</v>
+        <v>1.060400457311752</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9644417111255912</v>
+        <v>1.018250873496222</v>
       </c>
       <c r="D21">
-        <v>0.9937739833297722</v>
+        <v>1.037259232371868</v>
       </c>
       <c r="E21">
-        <v>0.9760493150232443</v>
+        <v>1.031743705052838</v>
       </c>
       <c r="F21">
-        <v>0.9952015418383673</v>
+        <v>1.04016688366022</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033051228215517</v>
+        <v>1.053023118865825</v>
       </c>
       <c r="J21">
-        <v>0.9955051910440612</v>
+        <v>1.047004866731561</v>
       </c>
       <c r="K21">
-        <v>1.008874277393199</v>
+        <v>1.051567504254381</v>
       </c>
       <c r="L21">
-        <v>0.9914991053058192</v>
+        <v>1.046147646410958</v>
       </c>
       <c r="M21">
-        <v>1.010274396323779</v>
+        <v>1.054425248614328</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9571803492033253</v>
+        <v>1.013170142183099</v>
       </c>
       <c r="D22">
-        <v>0.988168031992535</v>
+        <v>1.033220763893822</v>
       </c>
       <c r="E22">
-        <v>0.9700172171881456</v>
+        <v>1.027456736299122</v>
       </c>
       <c r="F22">
-        <v>0.989119205874329</v>
+        <v>1.035659127508794</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030804927827371</v>
+        <v>1.051091561838284</v>
       </c>
       <c r="J22">
-        <v>0.9899221728603846</v>
+        <v>1.043342974323287</v>
       </c>
       <c r="K22">
-        <v>1.003977583803942</v>
+        <v>1.048161639361276</v>
       </c>
       <c r="L22">
-        <v>0.9862069937495103</v>
+        <v>1.042503211455411</v>
       </c>
       <c r="M22">
-        <v>1.004909339613392</v>
+        <v>1.050555791035762</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9610612280060954</v>
+        <v>1.015878421534328</v>
       </c>
       <c r="D23">
-        <v>0.9911630408394686</v>
+        <v>1.035372850801271</v>
       </c>
       <c r="E23">
-        <v>0.9732397489069317</v>
+        <v>1.029741053582887</v>
       </c>
       <c r="F23">
-        <v>0.992368440911636</v>
+        <v>1.038061067617989</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03200643650897</v>
+        <v>1.052121998043095</v>
       </c>
       <c r="J23">
-        <v>0.9929059403691867</v>
+        <v>1.04529511363921</v>
       </c>
       <c r="K23">
-        <v>1.006594692474575</v>
+        <v>1.04997732664197</v>
       </c>
       <c r="L23">
-        <v>0.9890350451481108</v>
+        <v>1.044445773884302</v>
       </c>
       <c r="M23">
-        <v>1.0077762553644</v>
+        <v>1.052618190922921</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9756756931059435</v>
+        <v>1.026221728617723</v>
       </c>
       <c r="D24">
-        <v>1.002463843482936</v>
+        <v>1.043604653306683</v>
       </c>
       <c r="E24">
-        <v>0.9854026694261149</v>
+        <v>1.038482950157622</v>
       </c>
       <c r="F24">
-        <v>1.004634689241366</v>
+        <v>1.047253651089255</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03650946998539</v>
+        <v>1.05603916665269</v>
       </c>
       <c r="J24">
-        <v>1.004143344039089</v>
+        <v>1.052746463038316</v>
       </c>
       <c r="K24">
-        <v>1.016447828983109</v>
+        <v>1.05690697687076</v>
       </c>
       <c r="L24">
-        <v>0.999691073425178</v>
+        <v>1.051866362788675</v>
       </c>
       <c r="M24">
-        <v>1.018580900477008</v>
+        <v>1.060498820671446</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9914515673217974</v>
+        <v>1.037629589874635</v>
       </c>
       <c r="D25">
-        <v>1.014697369219349</v>
+        <v>1.052705541919101</v>
       </c>
       <c r="E25">
-        <v>0.9985792437972044</v>
+        <v>1.048157029296928</v>
       </c>
       <c r="F25">
-        <v>1.017926268259925</v>
+        <v>1.057427787996061</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041321611833975</v>
+        <v>1.060320184740729</v>
       </c>
       <c r="J25">
-        <v>1.016270085310272</v>
+        <v>1.060953699031312</v>
       </c>
       <c r="K25">
-        <v>1.027071732711012</v>
+        <v>1.064537278475542</v>
       </c>
       <c r="L25">
-        <v>1.011199655286174</v>
+        <v>1.060051089828082</v>
       </c>
       <c r="M25">
-        <v>1.030252532594112</v>
+        <v>1.069195533322287</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_55/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.046306042632583</v>
+        <v>1.077005770509684</v>
       </c>
       <c r="D2">
-        <v>1.059641412703589</v>
+        <v>1.07910128515306</v>
       </c>
       <c r="E2">
-        <v>1.055537555504043</v>
+        <v>1.080506282421036</v>
       </c>
       <c r="F2">
-        <v>1.06519103420111</v>
+        <v>1.090788279320382</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.063542724059405</v>
+        <v>1.057794804003207</v>
       </c>
       <c r="J2">
-        <v>1.067184767078957</v>
+        <v>1.081902390064228</v>
       </c>
       <c r="K2">
-        <v>1.070327976258847</v>
+        <v>1.081778218676892</v>
       </c>
       <c r="L2">
-        <v>1.066273813859486</v>
+        <v>1.083179538724866</v>
       </c>
       <c r="M2">
-        <v>1.075811150796911</v>
+        <v>1.093434936186371</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.052385847850934</v>
+        <v>1.078262152919711</v>
       </c>
       <c r="D3">
-        <v>1.064508148553448</v>
+        <v>1.080123569077601</v>
       </c>
       <c r="E3">
-        <v>1.060721018671387</v>
+        <v>1.0816196056051</v>
       </c>
       <c r="F3">
-        <v>1.070644068464071</v>
+        <v>1.091963856306752</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.065780556620062</v>
+        <v>1.058189823679921</v>
       </c>
       <c r="J3">
-        <v>1.071543600505059</v>
+        <v>1.082817381373135</v>
       </c>
       <c r="K3">
-        <v>1.0743771693819</v>
+        <v>1.08261801192799</v>
       </c>
       <c r="L3">
-        <v>1.070631725687453</v>
+        <v>1.084110416354603</v>
       </c>
       <c r="M3">
-        <v>1.080446316947012</v>
+        <v>1.094429845571146</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.056225426263925</v>
+        <v>1.079074988713257</v>
       </c>
       <c r="D4">
-        <v>1.067584238665376</v>
+        <v>1.080784886679979</v>
       </c>
       <c r="E4">
-        <v>1.063999549422822</v>
+        <v>1.08234011449908</v>
       </c>
       <c r="F4">
-        <v>1.074093487531473</v>
+        <v>1.092724739205675</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.067184141770042</v>
+        <v>1.058444131242422</v>
       </c>
       <c r="J4">
-        <v>1.074292586922344</v>
+        <v>1.083408752860226</v>
       </c>
       <c r="K4">
-        <v>1.076930070738388</v>
+        <v>1.083160632370092</v>
       </c>
       <c r="L4">
-        <v>1.073382366146507</v>
+        <v>1.084712274667444</v>
       </c>
       <c r="M4">
-        <v>1.083372929636259</v>
+        <v>1.095073238099369</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.057817984087046</v>
+        <v>1.07941667629054</v>
       </c>
       <c r="D5">
-        <v>1.068860682437092</v>
+        <v>1.081062865215782</v>
       </c>
       <c r="E5">
-        <v>1.06536054604485</v>
+        <v>1.082643044904911</v>
       </c>
       <c r="F5">
-        <v>1.075525519822867</v>
+        <v>1.093044664867024</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.067763949697927</v>
+        <v>1.058550732271079</v>
       </c>
       <c r="J5">
-        <v>1.075431852522659</v>
+        <v>1.083657201620814</v>
       </c>
       <c r="K5">
-        <v>1.077987869623799</v>
+        <v>1.083388563778725</v>
       </c>
       <c r="L5">
-        <v>1.074522848644559</v>
+        <v>1.084965181618333</v>
       </c>
       <c r="M5">
-        <v>1.084586608619853</v>
+        <v>1.095343630351736</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.0580841431305</v>
+        <v>1.079474045518925</v>
       </c>
       <c r="D6">
-        <v>1.069074041580987</v>
+        <v>1.081109536753047</v>
       </c>
       <c r="E6">
-        <v>1.065588070830565</v>
+        <v>1.08269390995406</v>
       </c>
       <c r="F6">
-        <v>1.075764925737996</v>
+        <v>1.09309838478838</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.067860711002795</v>
+        <v>1.058568612897437</v>
       </c>
       <c r="J6">
-        <v>1.075622197626393</v>
+        <v>1.083698907688429</v>
       </c>
       <c r="K6">
-        <v>1.078164591292555</v>
+        <v>1.083426823573181</v>
       </c>
       <c r="L6">
-        <v>1.074713428177885</v>
+        <v>1.08500763913712</v>
       </c>
       <c r="M6">
-        <v>1.084789433380789</v>
+        <v>1.095389025156864</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.056246789683097</v>
+        <v>1.079079554469259</v>
       </c>
       <c r="D7">
-        <v>1.067601359424698</v>
+        <v>1.080788601196348</v>
       </c>
       <c r="E7">
-        <v>1.064017802096392</v>
+        <v>1.082344162156765</v>
       </c>
       <c r="F7">
-        <v>1.074112692499362</v>
+        <v>1.092729013868146</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.067191929017988</v>
+        <v>1.058445556867493</v>
       </c>
       <c r="J7">
-        <v>1.07430787342198</v>
+        <v>1.083412073286951</v>
       </c>
       <c r="K7">
-        <v>1.076944264945113</v>
+        <v>1.083163678731247</v>
       </c>
       <c r="L7">
-        <v>1.073397666878903</v>
+        <v>1.084715654470241</v>
       </c>
       <c r="M7">
-        <v>1.08338921144764</v>
+        <v>1.095076851446013</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.048380931513527</v>
+        <v>1.077430398438902</v>
       </c>
       <c r="D8">
-        <v>1.061301724191361</v>
+        <v>1.079446806240233</v>
       </c>
       <c r="E8">
-        <v>1.057305453423086</v>
+        <v>1.08088251218453</v>
       </c>
       <c r="F8">
-        <v>1.067050794654364</v>
+        <v>1.091185529127079</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.06430844885324</v>
+        <v>1.057928571539647</v>
       </c>
       <c r="J8">
-        <v>1.068673090566405</v>
+        <v>1.082211759032395</v>
       </c>
       <c r="K8">
-        <v>1.071710736024545</v>
+        <v>1.082062193231961</v>
       </c>
       <c r="L8">
-        <v>1.067761349151083</v>
+        <v>1.083494233562162</v>
       </c>
       <c r="M8">
-        <v>1.077393119831598</v>
+        <v>1.093771249888957</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.033747651420025</v>
+        <v>1.074523309072561</v>
       </c>
       <c r="D9">
-        <v>1.04960618905033</v>
+        <v>1.077081059230145</v>
       </c>
       <c r="E9">
-        <v>1.044861262796598</v>
+        <v>1.078307724692235</v>
       </c>
       <c r="F9">
-        <v>1.053961480002178</v>
+        <v>1.088467236221835</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.058868586913266</v>
+        <v>1.057007622998563</v>
       </c>
       <c r="J9">
-        <v>1.058162500895924</v>
+        <v>1.080091322565266</v>
       </c>
       <c r="K9">
-        <v>1.061942630465893</v>
+        <v>1.080115202330392</v>
       </c>
       <c r="L9">
-        <v>1.057266137305213</v>
+        <v>1.081338196811558</v>
       </c>
       <c r="M9">
-        <v>1.066235793724297</v>
+        <v>1.0914676505683</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.023397673315443</v>
+        <v>1.072584407486494</v>
       </c>
       <c r="D10">
-        <v>1.041355163828508</v>
+        <v>1.075502936145591</v>
       </c>
       <c r="E10">
-        <v>1.036093346528463</v>
+        <v>1.07659168394266</v>
       </c>
       <c r="F10">
-        <v>1.044740754939982</v>
+        <v>1.086655988928857</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.054972715809764</v>
+        <v>1.056386929655789</v>
       </c>
       <c r="J10">
-        <v>1.050712773406973</v>
+        <v>1.078674040325063</v>
       </c>
       <c r="K10">
-        <v>1.055015834219211</v>
+        <v>1.078813088750745</v>
       </c>
       <c r="L10">
-        <v>1.049840132861097</v>
+        <v>1.079898257941541</v>
       </c>
       <c r="M10">
-        <v>1.058346604659186</v>
+        <v>1.089929854420749</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.018756217858978</v>
+        <v>1.071744613369308</v>
       </c>
       <c r="D11">
-        <v>1.037661178618391</v>
+        <v>1.074819349437818</v>
       </c>
       <c r="E11">
-        <v>1.032170471483293</v>
+        <v>1.075848717499336</v>
       </c>
       <c r="F11">
-        <v>1.040615640329022</v>
+        <v>1.085871905747681</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.053214869258134</v>
+        <v>1.056116558694187</v>
       </c>
       <c r="J11">
-        <v>1.047369010059594</v>
+        <v>1.078059456532414</v>
       </c>
       <c r="K11">
-        <v>1.051906171541882</v>
+        <v>1.078248267235919</v>
       </c>
       <c r="L11">
-        <v>1.04651017337219</v>
+        <v>1.079274120380863</v>
       </c>
       <c r="M11">
-        <v>1.054810205882609</v>
+        <v>1.089263465691169</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.017006375175367</v>
+        <v>1.071432638285628</v>
       </c>
       <c r="D12">
-        <v>1.036269574992143</v>
+        <v>1.074565396125411</v>
       </c>
       <c r="E12">
-        <v>1.030693005127137</v>
+        <v>1.075572758744415</v>
       </c>
       <c r="F12">
-        <v>1.03906205250136</v>
+        <v>1.08558069057062</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.052550609138244</v>
+        <v>1.056015888729518</v>
       </c>
       <c r="J12">
-        <v>1.04610803514649</v>
+        <v>1.077831037263787</v>
       </c>
       <c r="K12">
-        <v>1.050733402897169</v>
+        <v>1.078038316106229</v>
       </c>
       <c r="L12">
-        <v>1.04525488886251</v>
+        <v>1.07904219110331</v>
       </c>
       <c r="M12">
-        <v>1.053477290555707</v>
+        <v>1.089015860665531</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.017382920406964</v>
+        <v>1.071499559767912</v>
       </c>
       <c r="D13">
-        <v>1.036568982650845</v>
+        <v>1.074619871749454</v>
       </c>
       <c r="E13">
-        <v>1.03101087015698</v>
+        <v>1.07563195231298</v>
       </c>
       <c r="F13">
-        <v>1.039396292388752</v>
+        <v>1.085643155963778</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.052693618696453</v>
+        <v>1.056037493748902</v>
       </c>
       <c r="J13">
-        <v>1.046379397162652</v>
+        <v>1.077880040128721</v>
       </c>
       <c r="K13">
-        <v>1.050985786069956</v>
+        <v>1.078083358203589</v>
       </c>
       <c r="L13">
-        <v>1.045525004228926</v>
+        <v>1.079091945124542</v>
       </c>
       <c r="M13">
-        <v>1.053764102134423</v>
+        <v>1.089068976364591</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.018612112552546</v>
+        <v>1.07171882620477</v>
       </c>
       <c r="D14">
-        <v>1.037546553702781</v>
+        <v>1.074798358376637</v>
       </c>
       <c r="E14">
-        <v>1.032048766816581</v>
+        <v>1.0758259064254</v>
       </c>
       <c r="F14">
-        <v>1.040487664302503</v>
+        <v>1.085847833244002</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.053160196251641</v>
+        <v>1.056108242227772</v>
       </c>
       <c r="J14">
-        <v>1.047265171611415</v>
+        <v>1.078040578097425</v>
       </c>
       <c r="K14">
-        <v>1.051809598127621</v>
+        <v>1.078230915703852</v>
       </c>
       <c r="L14">
-        <v>1.04640679360838</v>
+        <v>1.079254951017571</v>
       </c>
       <c r="M14">
-        <v>1.054700428922497</v>
+        <v>1.08924300019439</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.019365983409298</v>
+        <v>1.071853918360469</v>
       </c>
       <c r="D15">
-        <v>1.038146244184523</v>
+        <v>1.074908324699879</v>
       </c>
       <c r="E15">
-        <v>1.032685511660796</v>
+        <v>1.075945409507723</v>
       </c>
       <c r="F15">
-        <v>1.041157222091634</v>
+        <v>1.085973945362668</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.05344614944342</v>
+        <v>1.056151800590155</v>
       </c>
       <c r="J15">
-        <v>1.04780837643687</v>
+        <v>1.078139472837962</v>
       </c>
       <c r="K15">
-        <v>1.052314794753385</v>
+        <v>1.07832181066393</v>
       </c>
       <c r="L15">
-        <v>1.04694761874023</v>
+        <v>1.079355371457559</v>
       </c>
       <c r="M15">
-        <v>1.055274728345553</v>
+        <v>1.089350211560925</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.023702195219891</v>
+        <v>1.072640136645868</v>
       </c>
       <c r="D16">
-        <v>1.041597660704994</v>
+        <v>1.075548298181667</v>
       </c>
       <c r="E16">
-        <v>1.03635092047903</v>
+        <v>1.076640993954704</v>
       </c>
       <c r="F16">
-        <v>1.045011614731562</v>
+        <v>1.086708029996296</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.055087829029268</v>
+        <v>1.05640483937007</v>
       </c>
       <c r="J16">
-        <v>1.050932100117846</v>
+        <v>1.078714809314755</v>
       </c>
       <c r="K16">
-        <v>1.055219794209685</v>
+        <v>1.078850552956252</v>
       </c>
       <c r="L16">
-        <v>1.05005862055229</v>
+        <v>1.07993966640196</v>
       </c>
       <c r="M16">
-        <v>1.058578663632388</v>
+        <v>1.089974069510301</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.026378184020138</v>
+        <v>1.073133245363373</v>
       </c>
       <c r="D17">
-        <v>1.043729318707515</v>
+        <v>1.075949669013213</v>
       </c>
       <c r="E17">
-        <v>1.038615397507556</v>
+        <v>1.077077338852386</v>
       </c>
       <c r="F17">
-        <v>1.04739293447484</v>
+        <v>1.087168553967981</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.056098177147627</v>
+        <v>1.056563133221976</v>
       </c>
       <c r="J17">
-        <v>1.052859111825439</v>
+        <v>1.079075462959168</v>
       </c>
       <c r="K17">
-        <v>1.057011725685461</v>
+        <v>1.07918195093558</v>
       </c>
       <c r="L17">
-        <v>1.051978619502188</v>
+        <v>1.080306008267181</v>
       </c>
       <c r="M17">
-        <v>1.060618065684315</v>
+        <v>1.090365260735188</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.027923749403343</v>
+        <v>1.073420844648949</v>
       </c>
       <c r="D18">
-        <v>1.044961073613442</v>
+        <v>1.076183757897347</v>
       </c>
       <c r="E18">
-        <v>1.039924139922848</v>
+        <v>1.077331860288496</v>
       </c>
       <c r="F18">
-        <v>1.048769239248052</v>
+        <v>1.087437189107983</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.05668070251655</v>
+        <v>1.056655308382049</v>
       </c>
       <c r="J18">
-        <v>1.053971810356129</v>
+        <v>1.079285740245738</v>
       </c>
       <c r="K18">
-        <v>1.058046366878512</v>
+        <v>1.079375153596188</v>
       </c>
       <c r="L18">
-        <v>1.05308756598789</v>
+        <v>1.080519628156727</v>
       </c>
       <c r="M18">
-        <v>1.061796095751709</v>
+        <v>1.090593386580334</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.028448204618311</v>
+        <v>1.073518904801964</v>
       </c>
       <c r="D19">
-        <v>1.045379138674716</v>
+        <v>1.076263572139001</v>
       </c>
       <c r="E19">
-        <v>1.040368376038329</v>
+        <v>1.077418647066124</v>
       </c>
       <c r="F19">
-        <v>1.049236414428745</v>
+        <v>1.087528790071242</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.056878195474089</v>
+        <v>1.056686711467831</v>
       </c>
       <c r="J19">
-        <v>1.054349331398036</v>
+        <v>1.079357424846791</v>
       </c>
       <c r="K19">
-        <v>1.058397393816376</v>
+        <v>1.07944101443892</v>
       </c>
       <c r="L19">
-        <v>1.053463864145709</v>
+        <v>1.080592456695122</v>
       </c>
       <c r="M19">
-        <v>1.062195856199517</v>
+        <v>1.090671163268689</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.026092669985184</v>
+        <v>1.073080341831044</v>
       </c>
       <c r="D20">
-        <v>1.043501821211775</v>
+        <v>1.075906608207653</v>
       </c>
       <c r="E20">
-        <v>1.038373700365126</v>
+        <v>1.077030522272196</v>
       </c>
       <c r="F20">
-        <v>1.047138762753695</v>
+        <v>1.087119142120986</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.055990483652963</v>
+        <v>1.056546165824635</v>
       </c>
       <c r="J20">
-        <v>1.052653538477481</v>
+        <v>1.07903677713194</v>
       </c>
       <c r="K20">
-        <v>1.056820568700847</v>
+        <v>1.07914640502721</v>
       </c>
       <c r="L20">
-        <v>1.05177376333353</v>
+        <v>1.080266709585771</v>
       </c>
       <c r="M20">
-        <v>1.060400457311752</v>
+        <v>1.090323294738373</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.018250873496222</v>
+        <v>1.071654258778074</v>
       </c>
       <c r="D21">
-        <v>1.037259232371868</v>
+        <v>1.074745799594871</v>
       </c>
       <c r="E21">
-        <v>1.031743705052838</v>
+        <v>1.07576879145285</v>
       </c>
       <c r="F21">
-        <v>1.04016688366022</v>
+        <v>1.085787560120446</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.053023118865825</v>
+        <v>1.056087415254854</v>
       </c>
       <c r="J21">
-        <v>1.047004866731561</v>
+        <v>1.077993307419713</v>
       </c>
       <c r="K21">
-        <v>1.051567504254381</v>
+        <v>1.078187467884625</v>
       </c>
       <c r="L21">
-        <v>1.046147646410958</v>
+        <v>1.079206952528779</v>
       </c>
       <c r="M21">
-        <v>1.054425248614328</v>
+        <v>1.089191756695459</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.013170142183099</v>
+        <v>1.070757401728996</v>
       </c>
       <c r="D22">
-        <v>1.033220763893822</v>
+        <v>1.074015728144503</v>
       </c>
       <c r="E22">
-        <v>1.027456736299122</v>
+        <v>1.074975560235841</v>
       </c>
       <c r="F22">
-        <v>1.035659127508794</v>
+        <v>1.084950504165096</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.051091561838284</v>
+        <v>1.055797579169668</v>
       </c>
       <c r="J22">
-        <v>1.043342974323287</v>
+        <v>1.077336451942168</v>
       </c>
       <c r="K22">
-        <v>1.048161639361276</v>
+        <v>1.077583670158446</v>
       </c>
       <c r="L22">
-        <v>1.042503211455411</v>
+        <v>1.078540080434742</v>
       </c>
       <c r="M22">
-        <v>1.050555791035762</v>
+        <v>1.088479858414581</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.015878421534328</v>
+        <v>1.071232864521775</v>
       </c>
       <c r="D23">
-        <v>1.035372850801271</v>
+        <v>1.074402774617867</v>
       </c>
       <c r="E23">
-        <v>1.029741053582887</v>
+        <v>1.075396061084092</v>
       </c>
       <c r="F23">
-        <v>1.038061067617989</v>
+        <v>1.085394228512842</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.052121998043095</v>
+        <v>1.05595135985575</v>
       </c>
       <c r="J23">
-        <v>1.04529511363921</v>
+        <v>1.077684738365737</v>
       </c>
       <c r="K23">
-        <v>1.04997732664197</v>
+        <v>1.077903838239686</v>
       </c>
       <c r="L23">
-        <v>1.044445773884302</v>
+        <v>1.078893655594869</v>
       </c>
       <c r="M23">
-        <v>1.052618190922921</v>
+        <v>1.088857292841862</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.026221728617723</v>
+        <v>1.073104246730219</v>
       </c>
       <c r="D24">
-        <v>1.043604653306683</v>
+        <v>1.075926065606205</v>
       </c>
       <c r="E24">
-        <v>1.038482950157622</v>
+        <v>1.077051676642378</v>
       </c>
       <c r="F24">
-        <v>1.047253651089255</v>
+        <v>1.087141469148211</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.05603916665269</v>
+        <v>1.056553833139997</v>
       </c>
       <c r="J24">
-        <v>1.052746463038316</v>
+        <v>1.079054257857476</v>
       </c>
       <c r="K24">
-        <v>1.05690697687076</v>
+        <v>1.079162466990378</v>
       </c>
       <c r="L24">
-        <v>1.051866362788675</v>
+        <v>1.080284467157242</v>
       </c>
       <c r="M24">
-        <v>1.060498820671446</v>
+        <v>1.09034225751858</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.037629589874635</v>
+        <v>1.075275000564557</v>
       </c>
       <c r="D25">
-        <v>1.052705541919101</v>
+        <v>1.0776928258892</v>
       </c>
       <c r="E25">
-        <v>1.048157029296928</v>
+        <v>1.078973278376621</v>
       </c>
       <c r="F25">
-        <v>1.057427787996061</v>
+        <v>1.089169807356515</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.060320184740729</v>
+        <v>1.05724689350608</v>
       </c>
       <c r="J25">
-        <v>1.060953699031312</v>
+        <v>1.080640145467534</v>
       </c>
       <c r="K25">
-        <v>1.064537278475542</v>
+        <v>1.080619267594971</v>
       </c>
       <c r="L25">
-        <v>1.060051089828082</v>
+        <v>1.081896033891163</v>
       </c>
       <c r="M25">
-        <v>1.069195533322287</v>
+        <v>1.092063544631949</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_55/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.077005770509684</v>
+        <v>1.046306042632583</v>
       </c>
       <c r="D2">
-        <v>1.07910128515306</v>
+        <v>1.05964141270359</v>
       </c>
       <c r="E2">
-        <v>1.080506282421036</v>
+        <v>1.055537555504043</v>
       </c>
       <c r="F2">
-        <v>1.090788279320382</v>
+        <v>1.06519103420111</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.057794804003207</v>
+        <v>1.063542724059405</v>
       </c>
       <c r="J2">
-        <v>1.081902390064228</v>
+        <v>1.067184767078957</v>
       </c>
       <c r="K2">
-        <v>1.081778218676892</v>
+        <v>1.070327976258847</v>
       </c>
       <c r="L2">
-        <v>1.083179538724866</v>
+        <v>1.066273813859487</v>
       </c>
       <c r="M2">
-        <v>1.093434936186371</v>
+        <v>1.075811150796911</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.078262152919711</v>
+        <v>1.052385847850934</v>
       </c>
       <c r="D3">
-        <v>1.080123569077601</v>
+        <v>1.064508148553448</v>
       </c>
       <c r="E3">
-        <v>1.0816196056051</v>
+        <v>1.060721018671387</v>
       </c>
       <c r="F3">
-        <v>1.091963856306752</v>
+        <v>1.070644068464071</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.058189823679921</v>
+        <v>1.065780556620062</v>
       </c>
       <c r="J3">
-        <v>1.082817381373135</v>
+        <v>1.071543600505059</v>
       </c>
       <c r="K3">
-        <v>1.08261801192799</v>
+        <v>1.0743771693819</v>
       </c>
       <c r="L3">
-        <v>1.084110416354603</v>
+        <v>1.070631725687453</v>
       </c>
       <c r="M3">
-        <v>1.094429845571146</v>
+        <v>1.080446316947012</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.079074988713257</v>
+        <v>1.056225426263922</v>
       </c>
       <c r="D4">
-        <v>1.080784886679979</v>
+        <v>1.067584238665373</v>
       </c>
       <c r="E4">
-        <v>1.08234011449908</v>
+        <v>1.063999549422818</v>
       </c>
       <c r="F4">
-        <v>1.092724739205675</v>
+        <v>1.07409348753147</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058444131242422</v>
+        <v>1.06718414177004</v>
       </c>
       <c r="J4">
-        <v>1.083408752860226</v>
+        <v>1.074292586922341</v>
       </c>
       <c r="K4">
-        <v>1.083160632370092</v>
+        <v>1.076930070738385</v>
       </c>
       <c r="L4">
-        <v>1.084712274667444</v>
+        <v>1.073382366146504</v>
       </c>
       <c r="M4">
-        <v>1.095073238099369</v>
+        <v>1.083372929636256</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.07941667629054</v>
+        <v>1.057817984087044</v>
       </c>
       <c r="D5">
-        <v>1.081062865215782</v>
+        <v>1.06886068243709</v>
       </c>
       <c r="E5">
-        <v>1.082643044904911</v>
+        <v>1.065360546044847</v>
       </c>
       <c r="F5">
-        <v>1.093044664867024</v>
+        <v>1.075525519822865</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058550732271079</v>
+        <v>1.067763949697926</v>
       </c>
       <c r="J5">
-        <v>1.083657201620814</v>
+        <v>1.075431852522657</v>
       </c>
       <c r="K5">
-        <v>1.083388563778725</v>
+        <v>1.077987869623797</v>
       </c>
       <c r="L5">
-        <v>1.084965181618333</v>
+        <v>1.074522848644557</v>
       </c>
       <c r="M5">
-        <v>1.095343630351736</v>
+        <v>1.084586608619851</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.079474045518925</v>
+        <v>1.0580841431305</v>
       </c>
       <c r="D6">
-        <v>1.081109536753047</v>
+        <v>1.069074041580987</v>
       </c>
       <c r="E6">
-        <v>1.08269390995406</v>
+        <v>1.065588070830565</v>
       </c>
       <c r="F6">
-        <v>1.09309838478838</v>
+        <v>1.075764925737996</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058568612897437</v>
+        <v>1.067860711002795</v>
       </c>
       <c r="J6">
-        <v>1.083698907688429</v>
+        <v>1.075622197626392</v>
       </c>
       <c r="K6">
-        <v>1.083426823573181</v>
+        <v>1.078164591292555</v>
       </c>
       <c r="L6">
-        <v>1.08500763913712</v>
+        <v>1.074713428177885</v>
       </c>
       <c r="M6">
-        <v>1.095389025156864</v>
+        <v>1.084789433380789</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.079079554469259</v>
+        <v>1.056246789683098</v>
       </c>
       <c r="D7">
-        <v>1.080788601196348</v>
+        <v>1.0676013594247</v>
       </c>
       <c r="E7">
-        <v>1.082344162156765</v>
+        <v>1.064017802096393</v>
       </c>
       <c r="F7">
-        <v>1.092729013868146</v>
+        <v>1.074112692499363</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058445556867493</v>
+        <v>1.067191929017989</v>
       </c>
       <c r="J7">
-        <v>1.083412073286951</v>
+        <v>1.074307873421981</v>
       </c>
       <c r="K7">
-        <v>1.083163678731247</v>
+        <v>1.076944264945114</v>
       </c>
       <c r="L7">
-        <v>1.084715654470241</v>
+        <v>1.073397666878904</v>
       </c>
       <c r="M7">
-        <v>1.095076851446013</v>
+        <v>1.083389211447641</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.077430398438902</v>
+        <v>1.048380931513526</v>
       </c>
       <c r="D8">
-        <v>1.079446806240233</v>
+        <v>1.06130172419136</v>
       </c>
       <c r="E8">
-        <v>1.08088251218453</v>
+        <v>1.057305453423085</v>
       </c>
       <c r="F8">
-        <v>1.091185529127079</v>
+        <v>1.067050794654363</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057928571539647</v>
+        <v>1.064308448853239</v>
       </c>
       <c r="J8">
-        <v>1.082211759032395</v>
+        <v>1.068673090566403</v>
       </c>
       <c r="K8">
-        <v>1.082062193231961</v>
+        <v>1.071710736024544</v>
       </c>
       <c r="L8">
-        <v>1.083494233562162</v>
+        <v>1.067761349151082</v>
       </c>
       <c r="M8">
-        <v>1.093771249888957</v>
+        <v>1.077393119831596</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.074523309072561</v>
+        <v>1.033747651420023</v>
       </c>
       <c r="D9">
-        <v>1.077081059230145</v>
+        <v>1.049606189050328</v>
       </c>
       <c r="E9">
-        <v>1.078307724692235</v>
+        <v>1.044861262796597</v>
       </c>
       <c r="F9">
-        <v>1.088467236221835</v>
+        <v>1.053961480002176</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.057007622998563</v>
+        <v>1.058868586913265</v>
       </c>
       <c r="J9">
-        <v>1.080091322565266</v>
+        <v>1.058162500895923</v>
       </c>
       <c r="K9">
-        <v>1.080115202330392</v>
+        <v>1.061942630465892</v>
       </c>
       <c r="L9">
-        <v>1.081338196811558</v>
+        <v>1.057266137305212</v>
       </c>
       <c r="M9">
-        <v>1.0914676505683</v>
+        <v>1.066235793724295</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.072584407486494</v>
+        <v>1.023397673315443</v>
       </c>
       <c r="D10">
-        <v>1.075502936145591</v>
+        <v>1.041355163828507</v>
       </c>
       <c r="E10">
-        <v>1.07659168394266</v>
+        <v>1.036093346528462</v>
       </c>
       <c r="F10">
-        <v>1.086655988928857</v>
+        <v>1.044740754939981</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.056386929655789</v>
+        <v>1.054972715809764</v>
       </c>
       <c r="J10">
-        <v>1.078674040325063</v>
+        <v>1.050712773406972</v>
       </c>
       <c r="K10">
-        <v>1.078813088750745</v>
+        <v>1.05501583421921</v>
       </c>
       <c r="L10">
-        <v>1.079898257941541</v>
+        <v>1.049840132861096</v>
       </c>
       <c r="M10">
-        <v>1.089929854420749</v>
+        <v>1.058346604659185</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.071744613369308</v>
+        <v>1.018756217858979</v>
       </c>
       <c r="D11">
-        <v>1.074819349437818</v>
+        <v>1.037661178618393</v>
       </c>
       <c r="E11">
-        <v>1.075848717499336</v>
+        <v>1.032170471483294</v>
       </c>
       <c r="F11">
-        <v>1.085871905747681</v>
+        <v>1.040615640329023</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.056116558694187</v>
+        <v>1.053214869258135</v>
       </c>
       <c r="J11">
-        <v>1.078059456532414</v>
+        <v>1.047369010059596</v>
       </c>
       <c r="K11">
-        <v>1.078248267235919</v>
+        <v>1.051906171541883</v>
       </c>
       <c r="L11">
-        <v>1.079274120380863</v>
+        <v>1.046510173372191</v>
       </c>
       <c r="M11">
-        <v>1.089263465691169</v>
+        <v>1.054810205882611</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.071432638285628</v>
+        <v>1.017006375175365</v>
       </c>
       <c r="D12">
-        <v>1.074565396125411</v>
+        <v>1.036269574992141</v>
       </c>
       <c r="E12">
-        <v>1.075572758744415</v>
+        <v>1.030693005127135</v>
       </c>
       <c r="F12">
-        <v>1.08558069057062</v>
+        <v>1.039062052501359</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.056015888729518</v>
+        <v>1.052550609138243</v>
       </c>
       <c r="J12">
-        <v>1.077831037263787</v>
+        <v>1.046108035146489</v>
       </c>
       <c r="K12">
-        <v>1.078038316106229</v>
+        <v>1.050733402897168</v>
       </c>
       <c r="L12">
-        <v>1.07904219110331</v>
+        <v>1.045254888862509</v>
       </c>
       <c r="M12">
-        <v>1.089015860665531</v>
+        <v>1.053477290555706</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.071499559767912</v>
+        <v>1.017382920406964</v>
       </c>
       <c r="D13">
-        <v>1.074619871749454</v>
+        <v>1.036568982650844</v>
       </c>
       <c r="E13">
-        <v>1.07563195231298</v>
+        <v>1.031010870156979</v>
       </c>
       <c r="F13">
-        <v>1.085643155963778</v>
+        <v>1.039396292388751</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.056037493748902</v>
+        <v>1.052693618696452</v>
       </c>
       <c r="J13">
-        <v>1.077880040128721</v>
+        <v>1.046379397162652</v>
       </c>
       <c r="K13">
-        <v>1.078083358203589</v>
+        <v>1.050985786069955</v>
       </c>
       <c r="L13">
-        <v>1.079091945124542</v>
+        <v>1.045525004228925</v>
       </c>
       <c r="M13">
-        <v>1.089068976364591</v>
+        <v>1.053764102134422</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.07171882620477</v>
+        <v>1.018612112552544</v>
       </c>
       <c r="D14">
-        <v>1.074798358376637</v>
+        <v>1.037546553702779</v>
       </c>
       <c r="E14">
-        <v>1.0758259064254</v>
+        <v>1.032048766816579</v>
       </c>
       <c r="F14">
-        <v>1.085847833244002</v>
+        <v>1.040487664302501</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.056108242227772</v>
+        <v>1.053160196251641</v>
       </c>
       <c r="J14">
-        <v>1.078040578097425</v>
+        <v>1.047265171611414</v>
       </c>
       <c r="K14">
-        <v>1.078230915703852</v>
+        <v>1.051809598127619</v>
       </c>
       <c r="L14">
-        <v>1.079254951017571</v>
+        <v>1.046406793608378</v>
       </c>
       <c r="M14">
-        <v>1.08924300019439</v>
+        <v>1.054700428922495</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.071853918360469</v>
+        <v>1.019365983409296</v>
       </c>
       <c r="D15">
-        <v>1.074908324699879</v>
+        <v>1.038146244184521</v>
       </c>
       <c r="E15">
-        <v>1.075945409507723</v>
+        <v>1.032685511660794</v>
       </c>
       <c r="F15">
-        <v>1.085973945362668</v>
+        <v>1.041157222091632</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.056151800590155</v>
+        <v>1.05344614944342</v>
       </c>
       <c r="J15">
-        <v>1.078139472837962</v>
+        <v>1.047808376436868</v>
       </c>
       <c r="K15">
-        <v>1.07832181066393</v>
+        <v>1.052314794753383</v>
       </c>
       <c r="L15">
-        <v>1.079355371457559</v>
+        <v>1.046947618740228</v>
       </c>
       <c r="M15">
-        <v>1.089350211560925</v>
+        <v>1.055274728345552</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.072640136645868</v>
+        <v>1.02370219521989</v>
       </c>
       <c r="D16">
-        <v>1.075548298181667</v>
+        <v>1.041597660704993</v>
       </c>
       <c r="E16">
-        <v>1.076640993954704</v>
+        <v>1.036350920479029</v>
       </c>
       <c r="F16">
-        <v>1.086708029996296</v>
+        <v>1.045011614731562</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05640483937007</v>
+        <v>1.055087829029268</v>
       </c>
       <c r="J16">
-        <v>1.078714809314755</v>
+        <v>1.050932100117845</v>
       </c>
       <c r="K16">
-        <v>1.078850552956252</v>
+        <v>1.055219794209685</v>
       </c>
       <c r="L16">
-        <v>1.07993966640196</v>
+        <v>1.05005862055229</v>
       </c>
       <c r="M16">
-        <v>1.089974069510301</v>
+        <v>1.058578663632388</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.073133245363373</v>
+        <v>1.026378184020138</v>
       </c>
       <c r="D17">
-        <v>1.075949669013213</v>
+        <v>1.043729318707515</v>
       </c>
       <c r="E17">
-        <v>1.077077338852386</v>
+        <v>1.038615397507556</v>
       </c>
       <c r="F17">
-        <v>1.087168553967981</v>
+        <v>1.047392934474841</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.056563133221976</v>
+        <v>1.056098177147627</v>
       </c>
       <c r="J17">
-        <v>1.079075462959168</v>
+        <v>1.052859111825439</v>
       </c>
       <c r="K17">
-        <v>1.07918195093558</v>
+        <v>1.057011725685462</v>
       </c>
       <c r="L17">
-        <v>1.080306008267181</v>
+        <v>1.051978619502188</v>
       </c>
       <c r="M17">
-        <v>1.090365260735188</v>
+        <v>1.060618065684315</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.073420844648949</v>
+        <v>1.027923749403344</v>
       </c>
       <c r="D18">
-        <v>1.076183757897347</v>
+        <v>1.044961073613442</v>
       </c>
       <c r="E18">
-        <v>1.077331860288496</v>
+        <v>1.039924139922848</v>
       </c>
       <c r="F18">
-        <v>1.087437189107983</v>
+        <v>1.048769239248052</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.056655308382049</v>
+        <v>1.056680702516551</v>
       </c>
       <c r="J18">
-        <v>1.079285740245738</v>
+        <v>1.053971810356129</v>
       </c>
       <c r="K18">
-        <v>1.079375153596188</v>
+        <v>1.058046366878513</v>
       </c>
       <c r="L18">
-        <v>1.080519628156727</v>
+        <v>1.05308756598789</v>
       </c>
       <c r="M18">
-        <v>1.090593386580334</v>
+        <v>1.061796095751709</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.073518904801964</v>
+        <v>1.028448204618311</v>
       </c>
       <c r="D19">
-        <v>1.076263572139001</v>
+        <v>1.045379138674716</v>
       </c>
       <c r="E19">
-        <v>1.077418647066124</v>
+        <v>1.04036837603833</v>
       </c>
       <c r="F19">
-        <v>1.087528790071242</v>
+        <v>1.049236414428746</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.056686711467831</v>
+        <v>1.056878195474089</v>
       </c>
       <c r="J19">
-        <v>1.079357424846791</v>
+        <v>1.054349331398037</v>
       </c>
       <c r="K19">
-        <v>1.07944101443892</v>
+        <v>1.058397393816376</v>
       </c>
       <c r="L19">
-        <v>1.080592456695122</v>
+        <v>1.05346386414571</v>
       </c>
       <c r="M19">
-        <v>1.090671163268689</v>
+        <v>1.062195856199518</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.073080341831044</v>
+        <v>1.026092669985183</v>
       </c>
       <c r="D20">
-        <v>1.075906608207653</v>
+        <v>1.043501821211773</v>
       </c>
       <c r="E20">
-        <v>1.077030522272196</v>
+        <v>1.038373700365125</v>
       </c>
       <c r="F20">
-        <v>1.087119142120986</v>
+        <v>1.047138762753694</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.056546165824635</v>
+        <v>1.055990483652963</v>
       </c>
       <c r="J20">
-        <v>1.07903677713194</v>
+        <v>1.05265353847748</v>
       </c>
       <c r="K20">
-        <v>1.07914640502721</v>
+        <v>1.056820568700846</v>
       </c>
       <c r="L20">
-        <v>1.080266709585771</v>
+        <v>1.05177376333353</v>
       </c>
       <c r="M20">
-        <v>1.090323294738373</v>
+        <v>1.06040045731175</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.071654258778074</v>
+        <v>1.018250873496219</v>
       </c>
       <c r="D21">
-        <v>1.074745799594871</v>
+        <v>1.037259232371866</v>
       </c>
       <c r="E21">
-        <v>1.07576879145285</v>
+        <v>1.031743705052836</v>
       </c>
       <c r="F21">
-        <v>1.085787560120446</v>
+        <v>1.040166883660218</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.056087415254854</v>
+        <v>1.053023118865824</v>
       </c>
       <c r="J21">
-        <v>1.077993307419713</v>
+        <v>1.047004866731559</v>
       </c>
       <c r="K21">
-        <v>1.078187467884625</v>
+        <v>1.05156750425438</v>
       </c>
       <c r="L21">
-        <v>1.079206952528779</v>
+        <v>1.046147646410955</v>
       </c>
       <c r="M21">
-        <v>1.089191756695459</v>
+        <v>1.054425248614326</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.070757401728996</v>
+        <v>1.0131701421831</v>
       </c>
       <c r="D22">
-        <v>1.074015728144503</v>
+        <v>1.033220763893822</v>
       </c>
       <c r="E22">
-        <v>1.074975560235841</v>
+        <v>1.027456736299122</v>
       </c>
       <c r="F22">
-        <v>1.084950504165096</v>
+        <v>1.035659127508794</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.055797579169668</v>
+        <v>1.051091561838284</v>
       </c>
       <c r="J22">
-        <v>1.077336451942168</v>
+        <v>1.043342974323287</v>
       </c>
       <c r="K22">
-        <v>1.077583670158446</v>
+        <v>1.048161639361275</v>
       </c>
       <c r="L22">
-        <v>1.078540080434742</v>
+        <v>1.042503211455412</v>
       </c>
       <c r="M22">
-        <v>1.088479858414581</v>
+        <v>1.050555791035763</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.071232864521775</v>
+        <v>1.015878421534328</v>
       </c>
       <c r="D23">
-        <v>1.074402774617867</v>
+        <v>1.035372850801271</v>
       </c>
       <c r="E23">
-        <v>1.075396061084092</v>
+        <v>1.029741053582887</v>
       </c>
       <c r="F23">
-        <v>1.085394228512842</v>
+        <v>1.038061067617989</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.05595135985575</v>
+        <v>1.052121998043095</v>
       </c>
       <c r="J23">
-        <v>1.077684738365737</v>
+        <v>1.045295113639209</v>
       </c>
       <c r="K23">
-        <v>1.077903838239686</v>
+        <v>1.04997732664197</v>
       </c>
       <c r="L23">
-        <v>1.078893655594869</v>
+        <v>1.044445773884301</v>
       </c>
       <c r="M23">
-        <v>1.088857292841862</v>
+        <v>1.05261819092292</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.073104246730219</v>
+        <v>1.026221728617722</v>
       </c>
       <c r="D24">
-        <v>1.075926065606205</v>
+        <v>1.043604653306681</v>
       </c>
       <c r="E24">
-        <v>1.077051676642378</v>
+        <v>1.03848295015762</v>
       </c>
       <c r="F24">
-        <v>1.087141469148211</v>
+        <v>1.047253651089254</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.056553833139997</v>
+        <v>1.05603916665269</v>
       </c>
       <c r="J24">
-        <v>1.079054257857476</v>
+        <v>1.052746463038315</v>
       </c>
       <c r="K24">
-        <v>1.079162466990378</v>
+        <v>1.056906976870758</v>
       </c>
       <c r="L24">
-        <v>1.080284467157242</v>
+        <v>1.051866362788674</v>
       </c>
       <c r="M24">
-        <v>1.09034225751858</v>
+        <v>1.060498820671445</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.075275000564557</v>
+        <v>1.037629589874635</v>
       </c>
       <c r="D25">
-        <v>1.0776928258892</v>
+        <v>1.052705541919101</v>
       </c>
       <c r="E25">
-        <v>1.078973278376621</v>
+        <v>1.048157029296927</v>
       </c>
       <c r="F25">
-        <v>1.089169807356515</v>
+        <v>1.057427787996061</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.05724689350608</v>
+        <v>1.060320184740729</v>
       </c>
       <c r="J25">
-        <v>1.080640145467534</v>
+        <v>1.060953699031312</v>
       </c>
       <c r="K25">
-        <v>1.080619267594971</v>
+        <v>1.064537278475542</v>
       </c>
       <c r="L25">
-        <v>1.081896033891163</v>
+        <v>1.060051089828081</v>
       </c>
       <c r="M25">
-        <v>1.092063544631949</v>
+        <v>1.069195533322286</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_55/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,37 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.046306042632583</v>
+        <v>1.009827582598032</v>
       </c>
       <c r="D2">
-        <v>1.05964141270359</v>
+        <v>1.030361540147935</v>
       </c>
       <c r="E2">
-        <v>1.055537555504043</v>
+        <v>1.014431583566254</v>
       </c>
       <c r="F2">
-        <v>1.06519103420111</v>
+        <v>1.036543398712626</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.063542724059405</v>
+        <v>1.048119507292692</v>
       </c>
       <c r="J2">
-        <v>1.067184767078957</v>
+        <v>1.03171827362974</v>
       </c>
       <c r="K2">
-        <v>1.070327976258847</v>
+        <v>1.041413494690621</v>
       </c>
       <c r="L2">
-        <v>1.066273813859487</v>
+        <v>1.025693459142616</v>
       </c>
       <c r="M2">
-        <v>1.075811150796911</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.047516061488067</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503999</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.046178143918717</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.040353209731762</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,37 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.052385847850934</v>
+        <v>1.015194521634633</v>
       </c>
       <c r="D3">
-        <v>1.064508148553448</v>
+        <v>1.033896347091893</v>
       </c>
       <c r="E3">
-        <v>1.060721018671387</v>
+        <v>1.018840656378216</v>
       </c>
       <c r="F3">
-        <v>1.070644068464071</v>
+        <v>1.03998273897983</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.065780556620062</v>
+        <v>1.049261912218245</v>
       </c>
       <c r="J3">
-        <v>1.071543600505059</v>
+        <v>1.035279368058931</v>
       </c>
       <c r="K3">
-        <v>1.0743771693819</v>
+        <v>1.044113137228035</v>
       </c>
       <c r="L3">
-        <v>1.070631725687453</v>
+        <v>1.029238011987619</v>
       </c>
       <c r="M3">
-        <v>1.080446316947012</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.050128368858024</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.048245591035099</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.042259428567664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -497,37 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.056225426263922</v>
+        <v>1.018591480905124</v>
       </c>
       <c r="D4">
-        <v>1.067584238665373</v>
+        <v>1.036137311999721</v>
       </c>
       <c r="E4">
-        <v>1.063999549422818</v>
+        <v>1.021636768433491</v>
       </c>
       <c r="F4">
-        <v>1.07409348753147</v>
+        <v>1.042166706569196</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.06718414177004</v>
+        <v>1.049974511470673</v>
       </c>
       <c r="J4">
-        <v>1.074292586922341</v>
+        <v>1.037531281191803</v>
       </c>
       <c r="K4">
-        <v>1.076930070738385</v>
+        <v>1.045818310143626</v>
       </c>
       <c r="L4">
-        <v>1.073382366146504</v>
+        <v>1.0314808859992</v>
       </c>
       <c r="M4">
-        <v>1.083372929636256</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.051781519429242</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.049553933855697</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.043466017867013</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -535,37 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.057817984087044</v>
+        <v>1.020008793068885</v>
       </c>
       <c r="D5">
-        <v>1.06886068243709</v>
+        <v>1.03707549581317</v>
       </c>
       <c r="E5">
-        <v>1.065360546044847</v>
+        <v>1.022805612011537</v>
       </c>
       <c r="F5">
-        <v>1.075525519822865</v>
+        <v>1.043080403598327</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.067763949697926</v>
+        <v>1.050271525654416</v>
       </c>
       <c r="J5">
-        <v>1.075431852522657</v>
+        <v>1.038472389061617</v>
       </c>
       <c r="K5">
-        <v>1.077987869623797</v>
+        <v>1.046532219673398</v>
       </c>
       <c r="L5">
-        <v>1.074522848644557</v>
+        <v>1.032418468509893</v>
       </c>
       <c r="M5">
-        <v>1.084586608619851</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.052472988618374</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.050101178394159</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.043977941146616</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -573,37 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.0580841431305</v>
+        <v>1.020253858937707</v>
       </c>
       <c r="D6">
-        <v>1.069074041580987</v>
+        <v>1.037240659609197</v>
       </c>
       <c r="E6">
-        <v>1.065588070830565</v>
+        <v>1.023008972020246</v>
       </c>
       <c r="F6">
-        <v>1.075764925737996</v>
+        <v>1.043239530917508</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.067860711002795</v>
+        <v>1.050325491168674</v>
       </c>
       <c r="J6">
-        <v>1.075622197626392</v>
+        <v>1.038637613731381</v>
       </c>
       <c r="K6">
-        <v>1.078164591292555</v>
+        <v>1.046659698479699</v>
       </c>
       <c r="L6">
-        <v>1.074713428177885</v>
+        <v>1.032582991387477</v>
       </c>
       <c r="M6">
-        <v>1.084789433380789</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.052594793120499</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.050197577222678</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.044076775607169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -611,37 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.056246789683098</v>
+        <v>1.018632412976375</v>
       </c>
       <c r="D7">
-        <v>1.0676013594247</v>
+        <v>1.036172206770044</v>
       </c>
       <c r="E7">
-        <v>1.064017802096393</v>
+        <v>1.021673753806383</v>
       </c>
       <c r="F7">
-        <v>1.074112692499363</v>
+        <v>1.042195909477271</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.067191929017989</v>
+        <v>1.049990579131979</v>
       </c>
       <c r="J7">
-        <v>1.074307873421981</v>
+        <v>1.037565296097174</v>
       </c>
       <c r="K7">
-        <v>1.076944264945114</v>
+        <v>1.04584995745722</v>
       </c>
       <c r="L7">
-        <v>1.073397666878904</v>
+        <v>1.031514531966338</v>
       </c>
       <c r="M7">
-        <v>1.083389211447641</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.051807564364226</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.049574546420485</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.043508406293643</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -649,37 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.048380931513526</v>
+        <v>1.011685644913908</v>
       </c>
       <c r="D8">
-        <v>1.06130172419136</v>
+        <v>1.031594386213956</v>
       </c>
       <c r="E8">
-        <v>1.057305453423085</v>
+        <v>1.015961187182209</v>
       </c>
       <c r="F8">
-        <v>1.067050794654363</v>
+        <v>1.037736220726821</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.064308448853239</v>
+        <v>1.048526683596148</v>
       </c>
       <c r="J8">
-        <v>1.068673090566403</v>
+        <v>1.032960217795722</v>
       </c>
       <c r="K8">
-        <v>1.071710736024544</v>
+        <v>1.042362744736664</v>
       </c>
       <c r="L8">
-        <v>1.067761349151082</v>
+        <v>1.02692920880376</v>
       </c>
       <c r="M8">
-        <v>1.077393119831596</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.048428186755479</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.046900023929438</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.041047244721501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -687,37 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.033747651420023</v>
+        <v>0.9987921035676524</v>
       </c>
       <c r="D9">
-        <v>1.049606189050328</v>
+        <v>1.02311780141498</v>
       </c>
       <c r="E9">
-        <v>1.044861262796597</v>
+        <v>1.005399000867548</v>
       </c>
       <c r="F9">
-        <v>1.053961480002176</v>
+        <v>1.029514796221385</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.058868586913265</v>
+        <v>1.045715900090574</v>
       </c>
       <c r="J9">
-        <v>1.058162500895923</v>
+        <v>1.02438758799362</v>
       </c>
       <c r="K9">
-        <v>1.061942630465892</v>
+        <v>1.035846621462982</v>
       </c>
       <c r="L9">
-        <v>1.057266137305212</v>
+        <v>1.018405086189441</v>
       </c>
       <c r="M9">
-        <v>1.066235793724295</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.042146501660866</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.041928518132652</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.036436736935323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -725,37 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.023397673315443</v>
+        <v>0.9898483041363209</v>
       </c>
       <c r="D10">
-        <v>1.041355163828507</v>
+        <v>1.017298551903019</v>
       </c>
       <c r="E10">
-        <v>1.036093346528462</v>
+        <v>0.9981263601945101</v>
       </c>
       <c r="F10">
-        <v>1.044740754939981</v>
+        <v>1.0239363995148</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.054972715809764</v>
+        <v>1.043753125589611</v>
       </c>
       <c r="J10">
-        <v>1.050712773406972</v>
+        <v>1.018470566806443</v>
       </c>
       <c r="K10">
-        <v>1.05501583421921</v>
+        <v>1.031362345314616</v>
       </c>
       <c r="L10">
-        <v>1.049840132861096</v>
+        <v>1.012529526391233</v>
       </c>
       <c r="M10">
-        <v>1.058346604659185</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.037886518016741</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.038608455751326</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.033282889188698</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -763,37 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.018756217858979</v>
+        <v>0.9868013788350163</v>
       </c>
       <c r="D11">
-        <v>1.037661178618393</v>
+        <v>1.015580947072142</v>
       </c>
       <c r="E11">
-        <v>1.032170471483294</v>
+        <v>0.9958087168335086</v>
       </c>
       <c r="F11">
-        <v>1.040615640329023</v>
+        <v>1.022667036750085</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.053214869258135</v>
+        <v>1.043373645995633</v>
       </c>
       <c r="J11">
-        <v>1.047369010059596</v>
+        <v>1.016733734125407</v>
       </c>
       <c r="K11">
-        <v>1.051906171541883</v>
+        <v>1.030214892164903</v>
       </c>
       <c r="L11">
-        <v>1.046510173372191</v>
+        <v>1.010810109842238</v>
       </c>
       <c r="M11">
-        <v>1.054810205882611</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.037173782247128</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.038480613173235</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.032504529387273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -801,37 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.017006375175365</v>
+        <v>0.986002165956318</v>
       </c>
       <c r="D12">
-        <v>1.036269574992141</v>
+        <v>1.015253433540351</v>
       </c>
       <c r="E12">
-        <v>1.030693005127135</v>
+        <v>0.9952804178027496</v>
       </c>
       <c r="F12">
-        <v>1.039062052501359</v>
+        <v>1.022629819597867</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.052550609138243</v>
+        <v>1.043417771219825</v>
       </c>
       <c r="J12">
-        <v>1.046108035146489</v>
+        <v>1.016410985311582</v>
       </c>
       <c r="K12">
-        <v>1.050733402897168</v>
+        <v>1.030094122485798</v>
       </c>
       <c r="L12">
-        <v>1.045254888862509</v>
+        <v>1.010498599599535</v>
       </c>
       <c r="M12">
-        <v>1.053477290555706</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.037335941432378</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.038935215429761</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.032419140787838</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -839,37 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.017382920406964</v>
+        <v>0.9869157993327486</v>
       </c>
       <c r="D13">
-        <v>1.036568982650844</v>
+        <v>1.016006845197202</v>
       </c>
       <c r="E13">
-        <v>1.031010870156979</v>
+        <v>0.9961245567437313</v>
       </c>
       <c r="F13">
-        <v>1.039396292388751</v>
+        <v>1.023574098544281</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.052693618696452</v>
+        <v>1.043812525810797</v>
       </c>
       <c r="J13">
-        <v>1.046379397162652</v>
+        <v>1.017189728644035</v>
       </c>
       <c r="K13">
-        <v>1.050985786069955</v>
+        <v>1.030790646289476</v>
       </c>
       <c r="L13">
-        <v>1.045525004228925</v>
+        <v>1.011282097787693</v>
       </c>
       <c r="M13">
-        <v>1.053764102134422</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.038220609595373</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.039911251658887</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.03290910870473</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -877,37 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.018612112552544</v>
+        <v>0.988329912637627</v>
       </c>
       <c r="D14">
-        <v>1.037546553702779</v>
+        <v>1.017023519350308</v>
       </c>
       <c r="E14">
-        <v>1.032048766816579</v>
+        <v>0.9973360054336797</v>
       </c>
       <c r="F14">
-        <v>1.040487664302501</v>
+        <v>1.024678220741644</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.053160196251641</v>
+        <v>1.044246892147367</v>
       </c>
       <c r="J14">
-        <v>1.047265171611414</v>
+        <v>1.018232731640519</v>
       </c>
       <c r="K14">
-        <v>1.051809598127619</v>
+        <v>1.031647940200204</v>
       </c>
       <c r="L14">
-        <v>1.046406793608378</v>
+        <v>1.012325371338439</v>
       </c>
       <c r="M14">
-        <v>1.054700428922495</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.03916565912625</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.04083149655866</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.0335166752898</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -915,37 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.019365983409296</v>
+        <v>0.9890566814524956</v>
       </c>
       <c r="D15">
-        <v>1.038146244184521</v>
+        <v>1.017518100653227</v>
       </c>
       <c r="E15">
-        <v>1.032685511660794</v>
+        <v>0.9979395371451472</v>
       </c>
       <c r="F15">
-        <v>1.041157222091632</v>
+        <v>1.0251786848945</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.05344614944342</v>
+        <v>1.044435649036636</v>
       </c>
       <c r="J15">
-        <v>1.047808376436868</v>
+        <v>1.01873801731598</v>
       </c>
       <c r="K15">
-        <v>1.052314794753383</v>
+        <v>1.032046907910618</v>
       </c>
       <c r="L15">
-        <v>1.046947618740228</v>
+        <v>1.012828271312164</v>
       </c>
       <c r="M15">
-        <v>1.055274728345552</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.039571511848794</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.041189788823574</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.03380464309423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -953,37 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.02370219521989</v>
+        <v>0.9926840220851078</v>
       </c>
       <c r="D16">
-        <v>1.041597660704993</v>
+        <v>1.019849868111595</v>
       </c>
       <c r="E16">
-        <v>1.036350920479029</v>
+        <v>1.000860793618519</v>
       </c>
       <c r="F16">
-        <v>1.045011614731562</v>
+        <v>1.027395887549703</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.055087829029268</v>
+        <v>1.045209818804827</v>
       </c>
       <c r="J16">
-        <v>1.050932100117845</v>
+        <v>1.021113217045043</v>
       </c>
       <c r="K16">
-        <v>1.055219794209685</v>
+        <v>1.033834089885306</v>
       </c>
       <c r="L16">
-        <v>1.05005862055229</v>
+        <v>1.015177891442735</v>
       </c>
       <c r="M16">
-        <v>1.058578663632388</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.041252233466551</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.04247955832998</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.035071412095594</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.026378184020138</v>
+        <v>0.9947255876029001</v>
       </c>
       <c r="D17">
-        <v>1.043729318707515</v>
+        <v>1.021106720011626</v>
       </c>
       <c r="E17">
-        <v>1.038615397507556</v>
+        <v>1.002469142892117</v>
       </c>
       <c r="F17">
-        <v>1.047392934474841</v>
+        <v>1.028513878640533</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.056098177147627</v>
+        <v>1.045573676132415</v>
       </c>
       <c r="J17">
-        <v>1.052859111825439</v>
+        <v>1.02238797355989</v>
       </c>
       <c r="K17">
-        <v>1.057011725685462</v>
+        <v>1.034754523261321</v>
       </c>
       <c r="L17">
-        <v>1.051978619502188</v>
+        <v>1.016434017155071</v>
       </c>
       <c r="M17">
-        <v>1.060618065684315</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.042039768588236</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.042973205747137</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.035724778769238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.027923749403344</v>
+        <v>0.9955737225411084</v>
       </c>
       <c r="D18">
-        <v>1.044961073613442</v>
+        <v>1.02152447827293</v>
       </c>
       <c r="E18">
-        <v>1.039924139922848</v>
+        <v>1.003072778799499</v>
       </c>
       <c r="F18">
-        <v>1.048769239248052</v>
+        <v>1.028737157559454</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.056680702516551</v>
+        <v>1.045600684938365</v>
       </c>
       <c r="J18">
-        <v>1.053971810356129</v>
+        <v>1.022804998565921</v>
       </c>
       <c r="K18">
-        <v>1.058046366878513</v>
+        <v>1.034981734119423</v>
       </c>
       <c r="L18">
-        <v>1.05308756598789</v>
+        <v>1.016838682040494</v>
       </c>
       <c r="M18">
-        <v>1.061796095751709</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.042077625486831</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.042765856091449</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.035873780122331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.028448204618311</v>
+        <v>0.9953833837970079</v>
       </c>
       <c r="D19">
-        <v>1.045379138674716</v>
+        <v>1.021224194235603</v>
       </c>
       <c r="E19">
-        <v>1.04036837603833</v>
+        <v>1.002810327013537</v>
       </c>
       <c r="F19">
-        <v>1.049236414428746</v>
+        <v>1.028176784755731</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.056878195474089</v>
+        <v>1.04534960744597</v>
       </c>
       <c r="J19">
-        <v>1.054349331398037</v>
+        <v>1.022486288498561</v>
       </c>
       <c r="K19">
-        <v>1.058397393816376</v>
+        <v>1.034623723500236</v>
       </c>
       <c r="L19">
-        <v>1.05346386414571</v>
+        <v>1.016516442227491</v>
       </c>
       <c r="M19">
-        <v>1.062195856199518</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.041464216958165</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.041955914261723</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.035627055614036</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.026092669985183</v>
+        <v>0.9922396406437827</v>
       </c>
       <c r="D20">
-        <v>1.043501821211773</v>
+        <v>1.018874662494864</v>
       </c>
       <c r="E20">
-        <v>1.038373700365125</v>
+        <v>1.00007922463388</v>
       </c>
       <c r="F20">
-        <v>1.047138762753694</v>
+        <v>1.025436598316585</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.055990483652963</v>
+        <v>1.044303464658807</v>
       </c>
       <c r="J20">
-        <v>1.05265353847748</v>
+        <v>1.020073023916719</v>
       </c>
       <c r="K20">
-        <v>1.056820568700846</v>
+        <v>1.032593549034523</v>
       </c>
       <c r="L20">
-        <v>1.05177376333353</v>
+        <v>1.014120681115074</v>
       </c>
       <c r="M20">
-        <v>1.06040045731175</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.039046450979992</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.039515873090691</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.034195581872767</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.018250873496219</v>
+        <v>0.9852998635193028</v>
       </c>
       <c r="D21">
-        <v>1.037259232371866</v>
+        <v>1.014319107962207</v>
       </c>
       <c r="E21">
-        <v>1.031743705052836</v>
+        <v>0.9944212818160355</v>
       </c>
       <c r="F21">
-        <v>1.040166883660218</v>
+        <v>1.021004856568439</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.053023118865824</v>
+        <v>1.042705021434568</v>
       </c>
       <c r="J21">
-        <v>1.047004866731559</v>
+        <v>1.015425313206276</v>
       </c>
       <c r="K21">
-        <v>1.05156750425438</v>
+        <v>1.029034185345127</v>
       </c>
       <c r="L21">
-        <v>1.046147646410955</v>
+        <v>1.009509121156069</v>
       </c>
       <c r="M21">
-        <v>1.054425248614326</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.035598920996831</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.036746538635171</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.031682227240166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.0131701421831</v>
+        <v>0.9808494351018785</v>
       </c>
       <c r="D22">
-        <v>1.033220763893822</v>
+        <v>1.011412310945158</v>
       </c>
       <c r="E22">
-        <v>1.027456736299122</v>
+        <v>0.990806174859806</v>
       </c>
       <c r="F22">
-        <v>1.035659127508794</v>
+        <v>1.018210587756282</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.051091561838284</v>
+        <v>1.041679576157043</v>
       </c>
       <c r="J22">
-        <v>1.043342974323287</v>
+        <v>1.012453800544291</v>
       </c>
       <c r="K22">
-        <v>1.048161639361275</v>
+        <v>1.026761027909548</v>
       </c>
       <c r="L22">
-        <v>1.042503211455412</v>
+        <v>1.006561990197451</v>
       </c>
       <c r="M22">
-        <v>1.050555791035763</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.033429720293002</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.035029750640279</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.0300614378668</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.015878421534328</v>
+        <v>0.9831968903777756</v>
       </c>
       <c r="D23">
-        <v>1.035372850801271</v>
+        <v>1.012937108075364</v>
       </c>
       <c r="E23">
-        <v>1.029741053582887</v>
+        <v>0.9927081563830547</v>
       </c>
       <c r="F23">
-        <v>1.038061067617989</v>
+        <v>1.019680259199953</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.052121998043095</v>
+        <v>1.042213971174572</v>
       </c>
       <c r="J23">
-        <v>1.045295113639209</v>
+        <v>1.014014432345523</v>
       </c>
       <c r="K23">
-        <v>1.04997732664197</v>
+        <v>1.027949582705953</v>
       </c>
       <c r="L23">
-        <v>1.044445773884301</v>
+        <v>1.008109266582998</v>
       </c>
       <c r="M23">
-        <v>1.05261819092292</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.034567649524454</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.035930351661175</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.03089211863942</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.026221728617722</v>
+        <v>0.9922294622160532</v>
       </c>
       <c r="D24">
-        <v>1.043604653306681</v>
+        <v>1.018832440260042</v>
       </c>
       <c r="E24">
-        <v>1.03848295015762</v>
+        <v>1.000051585597637</v>
       </c>
       <c r="F24">
-        <v>1.047253651089254</v>
+        <v>1.025364993592673</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.05603916665269</v>
+        <v>1.044262424032685</v>
       </c>
       <c r="J24">
-        <v>1.052746463038315</v>
+        <v>1.020029949025403</v>
       </c>
       <c r="K24">
-        <v>1.056906976870758</v>
+        <v>1.032536716142686</v>
       </c>
       <c r="L24">
-        <v>1.051866362788674</v>
+        <v>1.014077795395632</v>
       </c>
       <c r="M24">
-        <v>1.060498820671445</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.038960847353214</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.039407286923815</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.034127931257883</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.037629589874635</v>
+        <v>1.002241042112191</v>
       </c>
       <c r="D25">
-        <v>1.052705541919101</v>
+        <v>1.025393559829401</v>
       </c>
       <c r="E25">
-        <v>1.048157029296927</v>
+        <v>1.008224451253082</v>
       </c>
       <c r="F25">
-        <v>1.057427787996061</v>
+        <v>1.031711049909818</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.060320184740729</v>
+        <v>1.046489227224836</v>
       </c>
       <c r="J25">
-        <v>1.060953699031312</v>
+        <v>1.026693220912094</v>
       </c>
       <c r="K25">
-        <v>1.064537278475542</v>
+        <v>1.037610059908132</v>
       </c>
       <c r="L25">
-        <v>1.060051089828081</v>
+        <v>1.020696420854778</v>
       </c>
       <c r="M25">
-        <v>1.069195533322286</v>
+        <v>1.043836258225577</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.043265843283071</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.037712179360009</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_55/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.009827582598032</v>
+        <v>1.008598561557435</v>
       </c>
       <c r="D2">
-        <v>1.030361540147935</v>
+        <v>1.02898564925053</v>
       </c>
       <c r="E2">
-        <v>1.014431583566254</v>
+        <v>1.013484216220963</v>
       </c>
       <c r="F2">
-        <v>1.036543398712626</v>
+        <v>1.035565577812452</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.048119507292692</v>
+        <v>1.047654909791888</v>
       </c>
       <c r="J2">
-        <v>1.03171827362974</v>
+        <v>1.03052509787015</v>
       </c>
       <c r="K2">
-        <v>1.041413494690621</v>
+        <v>1.040055413916672</v>
       </c>
       <c r="L2">
-        <v>1.025693459142616</v>
+        <v>1.024758837267167</v>
       </c>
       <c r="M2">
-        <v>1.047516061488067</v>
+        <v>1.046550703883902</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.009637762185257</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.046178143918717</v>
+        <v>1.045414133660213</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.040353209731762</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.039401688221873</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02239487087695</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015194521634633</v>
+        <v>1.013644909252719</v>
       </c>
       <c r="D3">
-        <v>1.033896347091893</v>
+        <v>1.032180217911923</v>
       </c>
       <c r="E3">
-        <v>1.018840656378216</v>
+        <v>1.017597601928411</v>
       </c>
       <c r="F3">
-        <v>1.03998273897983</v>
+        <v>1.038752255013894</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.049261912218245</v>
+        <v>1.048634311857672</v>
       </c>
       <c r="J3">
-        <v>1.035279368058931</v>
+        <v>1.03377038764091</v>
       </c>
       <c r="K3">
-        <v>1.044113137228035</v>
+        <v>1.042417260357652</v>
       </c>
       <c r="L3">
-        <v>1.029238011987619</v>
+        <v>1.028010162586427</v>
       </c>
       <c r="M3">
-        <v>1.050128368858024</v>
+        <v>1.048912188179985</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.048245591035099</v>
+        <v>1.047283075144298</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.042259428567664</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.041068774425309</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022952597420129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018591480905124</v>
+        <v>1.016842690358158</v>
       </c>
       <c r="D4">
-        <v>1.036137311999721</v>
+        <v>1.034208430009172</v>
       </c>
       <c r="E4">
-        <v>1.021636768433491</v>
+        <v>1.020209963169225</v>
       </c>
       <c r="F4">
-        <v>1.042166706569196</v>
+        <v>1.040778606060778</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.049974511470673</v>
+        <v>1.049245043173461</v>
       </c>
       <c r="J4">
-        <v>1.037531281191803</v>
+        <v>1.035825155195183</v>
       </c>
       <c r="K4">
-        <v>1.045818310143626</v>
+        <v>1.043910802056793</v>
       </c>
       <c r="L4">
-        <v>1.0314808859992</v>
+        <v>1.030070440426209</v>
       </c>
       <c r="M4">
-        <v>1.051781519429242</v>
+        <v>1.050408572809039</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.049553933855697</v>
+        <v>1.048467351292251</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.043466017867013</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.042125802955833</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.02330257159351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.020008793068885</v>
+        <v>1.018177575183548</v>
       </c>
       <c r="D5">
-        <v>1.03707549581317</v>
+        <v>1.035058335745145</v>
       </c>
       <c r="E5">
-        <v>1.022805612011537</v>
+        <v>1.021302689519084</v>
       </c>
       <c r="F5">
-        <v>1.043080403598327</v>
+        <v>1.041626962369805</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.050271525654416</v>
+        <v>1.049499701443381</v>
       </c>
       <c r="J5">
-        <v>1.038472389061617</v>
+        <v>1.036684475652136</v>
       </c>
       <c r="K5">
-        <v>1.046532219673398</v>
+        <v>1.044536809761555</v>
       </c>
       <c r="L5">
-        <v>1.032418468509893</v>
+        <v>1.0309323025828</v>
       </c>
       <c r="M5">
-        <v>1.052472988618374</v>
+        <v>1.051034988656672</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.050101178394159</v>
+        <v>1.048963111868797</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.043977941146616</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.042576285653552</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.02344940483834</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.020253858937707</v>
+        <v>1.01840822523501</v>
       </c>
       <c r="D6">
-        <v>1.037240659609197</v>
+        <v>1.035208132641176</v>
       </c>
       <c r="E6">
-        <v>1.023008972020246</v>
+        <v>1.021492645542753</v>
       </c>
       <c r="F6">
-        <v>1.043239530917508</v>
+        <v>1.041774688014226</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.050325491168674</v>
+        <v>1.049546165468749</v>
       </c>
       <c r="J6">
-        <v>1.038637613731381</v>
+        <v>1.036835394476761</v>
       </c>
       <c r="K6">
-        <v>1.046659698479699</v>
+        <v>1.044648985641668</v>
       </c>
       <c r="L6">
-        <v>1.032582991387477</v>
+        <v>1.031083490487448</v>
       </c>
       <c r="M6">
-        <v>1.052594793120499</v>
+        <v>1.051145440683592</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.050197577222678</v>
+        <v>1.049050526226625</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.044076775607169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.042665172121705</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023476654191832</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018632412976375</v>
+        <v>1.016880628767475</v>
       </c>
       <c r="D7">
-        <v>1.036172206770044</v>
+        <v>1.034240370728711</v>
       </c>
       <c r="E7">
-        <v>1.021673753806383</v>
+        <v>1.02024392840246</v>
       </c>
       <c r="F7">
-        <v>1.042195909477271</v>
+        <v>1.040805531260099</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.049990579131979</v>
+        <v>1.049259333878006</v>
       </c>
       <c r="J7">
-        <v>1.037565296097174</v>
+        <v>1.035856229453446</v>
       </c>
       <c r="K7">
-        <v>1.04584995745722</v>
+        <v>1.043939519226864</v>
       </c>
       <c r="L7">
-        <v>1.031514531966338</v>
+        <v>1.030101093996993</v>
       </c>
       <c r="M7">
-        <v>1.051807564364226</v>
+        <v>1.050432358851544</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.049574546420485</v>
+        <v>1.048486176144749</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.043508406293643</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.042168126617865</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023311967820183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.011685644913908</v>
+        <v>1.010343906038079</v>
       </c>
       <c r="D8">
-        <v>1.031594386213956</v>
+        <v>1.03009951321654</v>
       </c>
       <c r="E8">
-        <v>1.015961187182209</v>
+        <v>1.014909519968366</v>
       </c>
       <c r="F8">
-        <v>1.037736220726821</v>
+        <v>1.036669837249705</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.048526683596148</v>
+        <v>1.048004576306472</v>
       </c>
       <c r="J8">
-        <v>1.032960217795722</v>
+        <v>1.031656250136107</v>
       </c>
       <c r="K8">
-        <v>1.042362744736664</v>
+        <v>1.040886636969146</v>
       </c>
       <c r="L8">
-        <v>1.02692920880376</v>
+        <v>1.025891249737862</v>
       </c>
       <c r="M8">
-        <v>1.048428186755479</v>
+        <v>1.04737498616215</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.046900023929438</v>
+        <v>1.046066493119077</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.041047244721501</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.040014540860247</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022595140317385</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9987921035676524</v>
+        <v>0.9982452583232744</v>
       </c>
       <c r="D9">
-        <v>1.02311780141498</v>
+        <v>1.022456938452743</v>
       </c>
       <c r="E9">
-        <v>1.005399000867548</v>
+        <v>1.005079879007873</v>
       </c>
       <c r="F9">
-        <v>1.029514796221385</v>
+        <v>1.029070261398993</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.045715900090574</v>
+        <v>1.045593879559515</v>
       </c>
       <c r="J9">
-        <v>1.02438758799362</v>
+        <v>1.023860133574795</v>
       </c>
       <c r="K9">
-        <v>1.035846621462982</v>
+        <v>1.035195879604474</v>
       </c>
       <c r="L9">
-        <v>1.018405086189441</v>
+        <v>1.018091072884249</v>
       </c>
       <c r="M9">
-        <v>1.042146501660866</v>
+        <v>1.04170866573716</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.041928518132652</v>
+        <v>1.041582000957153</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.036436736935323</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.035987364129818</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021233030635402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9898483041363209</v>
+        <v>0.9898671305730471</v>
       </c>
       <c r="D10">
-        <v>1.017298551903019</v>
+        <v>1.01722259901248</v>
       </c>
       <c r="E10">
-        <v>0.9981263601945101</v>
+        <v>0.9983249254572746</v>
       </c>
       <c r="F10">
-        <v>1.0239363995148</v>
+        <v>1.023929853810759</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.043753125589611</v>
+        <v>1.043908915236978</v>
       </c>
       <c r="J10">
-        <v>1.018470566806443</v>
+        <v>1.018488624386668</v>
       </c>
       <c r="K10">
-        <v>1.031362345314616</v>
+        <v>1.031287704241874</v>
       </c>
       <c r="L10">
-        <v>1.012529526391233</v>
+        <v>1.012724489898954</v>
       </c>
       <c r="M10">
-        <v>1.037886518016741</v>
+        <v>1.037880083472408</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.038608455751326</v>
+        <v>1.038603363544851</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.033282889188698</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.033242558695292</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020295122144474</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9868013788350163</v>
+        <v>0.9869208226901901</v>
       </c>
       <c r="D11">
-        <v>1.015580947072142</v>
+        <v>1.015620226519562</v>
       </c>
       <c r="E11">
-        <v>0.9958087168335086</v>
+        <v>0.9960819613800451</v>
       </c>
       <c r="F11">
-        <v>1.022667036750085</v>
+        <v>1.022741977176213</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.043373645995633</v>
+        <v>1.04356217095786</v>
       </c>
       <c r="J11">
-        <v>1.016733734125407</v>
+        <v>1.016848018105591</v>
       </c>
       <c r="K11">
-        <v>1.030214892164903</v>
+        <v>1.030253460159934</v>
       </c>
       <c r="L11">
-        <v>1.010810109842238</v>
+        <v>1.011078146362532</v>
       </c>
       <c r="M11">
-        <v>1.037173782247128</v>
+        <v>1.037247389671561</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.038480613173235</v>
+        <v>1.038538835762447</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.032504529387273</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.032547465502181</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020134632227753</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.986002165956318</v>
+        <v>0.9860967710789875</v>
       </c>
       <c r="D12">
-        <v>1.015253433540351</v>
+        <v>1.015276859418352</v>
       </c>
       <c r="E12">
-        <v>0.9952804178027496</v>
+        <v>0.9955170700617513</v>
       </c>
       <c r="F12">
-        <v>1.022629819597867</v>
+        <v>1.022688828471037</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.043417771219825</v>
+        <v>1.043581353109635</v>
       </c>
       <c r="J12">
-        <v>1.016410985311582</v>
+        <v>1.016501422726188</v>
       </c>
       <c r="K12">
-        <v>1.030094122485798</v>
+        <v>1.030117116973515</v>
       </c>
       <c r="L12">
-        <v>1.010498599599535</v>
+        <v>1.010730662865842</v>
       </c>
       <c r="M12">
-        <v>1.037335941432378</v>
+        <v>1.037393883985073</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.038935215429761</v>
+        <v>1.038981031784791</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.032419140787838</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.03245106789822</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020169760671417</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9869157993327486</v>
+        <v>0.9868841727519151</v>
       </c>
       <c r="D13">
-        <v>1.016006845197202</v>
+        <v>1.015909574180156</v>
       </c>
       <c r="E13">
-        <v>0.9961245567437313</v>
+        <v>0.9962336687866242</v>
       </c>
       <c r="F13">
-        <v>1.023574098544281</v>
+        <v>1.023539036332552</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.043812525810797</v>
+        <v>1.043903593812418</v>
       </c>
       <c r="J13">
-        <v>1.017189728644035</v>
+        <v>1.017159486798312</v>
       </c>
       <c r="K13">
-        <v>1.030790646289476</v>
+        <v>1.030695157365428</v>
       </c>
       <c r="L13">
-        <v>1.011282097787693</v>
+        <v>1.011389105454297</v>
       </c>
       <c r="M13">
-        <v>1.038220609595373</v>
+        <v>1.038186177422561</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.039911251658887</v>
+        <v>1.039884032272847</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.03290910870473</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.03285701237361</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020369896115839</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.988329912637627</v>
+        <v>0.9881654586624081</v>
       </c>
       <c r="D14">
-        <v>1.017023519350308</v>
+        <v>1.016795378642231</v>
       </c>
       <c r="E14">
-        <v>0.9973360054336797</v>
+        <v>0.9973160467493458</v>
       </c>
       <c r="F14">
-        <v>1.024678220741644</v>
+        <v>1.02454288773558</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.044246892147367</v>
+        <v>1.04426633489802</v>
       </c>
       <c r="J14">
-        <v>1.018232731640519</v>
+        <v>1.018075363669744</v>
       </c>
       <c r="K14">
-        <v>1.031647940200204</v>
+        <v>1.03142392327295</v>
       </c>
       <c r="L14">
-        <v>1.012325371338439</v>
+        <v>1.012305792187504</v>
       </c>
       <c r="M14">
-        <v>1.03916565912625</v>
+        <v>1.039032724872926</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.04083149655866</v>
+        <v>1.040726423267303</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.0335166752898</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.033373833118242</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020584810567238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9890566814524956</v>
+        <v>0.9888369674601685</v>
       </c>
       <c r="D15">
-        <v>1.017518100653227</v>
+        <v>1.0172343097699</v>
       </c>
       <c r="E15">
-        <v>0.9979395371451472</v>
+        <v>0.9978674804195283</v>
       </c>
       <c r="F15">
-        <v>1.0251786848945</v>
+        <v>1.025001229642963</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.044435649036636</v>
+        <v>1.04442670093411</v>
       </c>
       <c r="J15">
-        <v>1.01873801731598</v>
+        <v>1.018527680481956</v>
       </c>
       <c r="K15">
-        <v>1.032046907910618</v>
+        <v>1.031768205606753</v>
       </c>
       <c r="L15">
-        <v>1.012828271312164</v>
+        <v>1.012757573342413</v>
       </c>
       <c r="M15">
-        <v>1.039571511848794</v>
+        <v>1.039397176735078</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.01017436097146</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.041189788823574</v>
+        <v>1.041051995256609</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.03380464309423</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.033623703581267</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020676897788579</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9926840220851078</v>
+        <v>0.9922481419016763</v>
       </c>
       <c r="D16">
-        <v>1.019849868111595</v>
+        <v>1.01934099507478</v>
       </c>
       <c r="E16">
-        <v>1.000860793618519</v>
+        <v>1.000594365772433</v>
       </c>
       <c r="F16">
-        <v>1.027395887549703</v>
+        <v>1.027051071154881</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.045209818804827</v>
+        <v>1.045097947486622</v>
       </c>
       <c r="J16">
-        <v>1.021113217045043</v>
+        <v>1.020694948681388</v>
       </c>
       <c r="K16">
-        <v>1.033834089885306</v>
+        <v>1.033333928335531</v>
       </c>
       <c r="L16">
-        <v>1.015177891442735</v>
+        <v>1.014916250831099</v>
       </c>
       <c r="M16">
-        <v>1.041252233466551</v>
+        <v>1.040913207549831</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.04247955832998</v>
+        <v>1.042211586235257</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.035071412095594</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.034734181099233</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021044272597278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9947255876029001</v>
+        <v>0.9941935832537151</v>
       </c>
       <c r="D17">
-        <v>1.021106720011626</v>
+        <v>1.020493793226136</v>
       </c>
       <c r="E17">
-        <v>1.002469142892117</v>
+        <v>1.00212109142345</v>
       </c>
       <c r="F17">
-        <v>1.028513878640533</v>
+        <v>1.028093169673161</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.045573676132415</v>
+        <v>1.045420155345239</v>
       </c>
       <c r="J17">
-        <v>1.02238797355989</v>
+        <v>1.02187673676754</v>
       </c>
       <c r="K17">
-        <v>1.034754523261321</v>
+        <v>1.034151786652748</v>
       </c>
       <c r="L17">
-        <v>1.016434017155071</v>
+        <v>1.016092032155088</v>
       </c>
       <c r="M17">
-        <v>1.042039768588236</v>
+        <v>1.041625923534039</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.042973205747137</v>
+        <v>1.042646062688356</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.035724778769238</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.035315265757462</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.02121260580794</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9955737225411084</v>
+        <v>0.9950424638425734</v>
       </c>
       <c r="D18">
-        <v>1.02152447827293</v>
+        <v>1.020904923024929</v>
       </c>
       <c r="E18">
-        <v>1.003072778799499</v>
+        <v>1.002735485501028</v>
       </c>
       <c r="F18">
-        <v>1.028737157559454</v>
+        <v>1.028314366159015</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.045600684938365</v>
+        <v>1.045456554261535</v>
       </c>
       <c r="J18">
-        <v>1.022804998565921</v>
+        <v>1.022294078129915</v>
       </c>
       <c r="K18">
-        <v>1.034981734119423</v>
+        <v>1.03437230965983</v>
       </c>
       <c r="L18">
-        <v>1.016838682040494</v>
+        <v>1.016507167371799</v>
       </c>
       <c r="M18">
-        <v>1.042077625486831</v>
+        <v>1.041661621952895</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.042765856091449</v>
+        <v>1.042436938404498</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.035873780122331</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.035458399935765</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021214717198691</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9953833837970079</v>
+        <v>0.9949334366980518</v>
       </c>
       <c r="D19">
-        <v>1.021224194235603</v>
+        <v>1.020679822496107</v>
       </c>
       <c r="E19">
-        <v>1.002810327013537</v>
+        <v>1.002559741028695</v>
       </c>
       <c r="F19">
-        <v>1.028176784755731</v>
+        <v>1.027813601952694</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.04534960744597</v>
+        <v>1.045256679167088</v>
       </c>
       <c r="J19">
-        <v>1.022486288498561</v>
+        <v>1.022053473190676</v>
       </c>
       <c r="K19">
-        <v>1.034623723500236</v>
+        <v>1.034088211524356</v>
       </c>
       <c r="L19">
-        <v>1.016516442227491</v>
+        <v>1.016270128750355</v>
       </c>
       <c r="M19">
-        <v>1.041464216958165</v>
+        <v>1.041106841641068</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624639</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.041955914261723</v>
+        <v>1.041673259582449</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.035627055614036</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.035264561999847</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021082201066969</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9922396406437827</v>
+        <v>0.992101934286961</v>
       </c>
       <c r="D20">
-        <v>1.018874662494864</v>
+        <v>1.018638542330708</v>
       </c>
       <c r="E20">
-        <v>1.00007922463388</v>
+        <v>1.000133698342397</v>
       </c>
       <c r="F20">
-        <v>1.025436598316585</v>
+        <v>1.025309606238401</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.044303464658807</v>
+        <v>1.044381837418745</v>
       </c>
       <c r="J20">
-        <v>1.020073023916719</v>
+        <v>1.019940745174686</v>
       </c>
       <c r="K20">
-        <v>1.032593549034523</v>
+        <v>1.032361386021139</v>
       </c>
       <c r="L20">
-        <v>1.014120681115074</v>
+        <v>1.014174197233395</v>
       </c>
       <c r="M20">
-        <v>1.039046450979992</v>
+        <v>1.038921551978139</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.039515873090691</v>
+        <v>1.039417028654222</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.034195581872767</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.034047969918519</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020561753199941</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9852998635193028</v>
+        <v>0.985629298696584</v>
       </c>
       <c r="D21">
-        <v>1.014319107962207</v>
+        <v>1.014559293847189</v>
       </c>
       <c r="E21">
-        <v>0.9944212818160355</v>
+        <v>0.994905452076724</v>
       </c>
       <c r="F21">
-        <v>1.021004856568439</v>
+        <v>1.02123645198755</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.042705021434568</v>
+        <v>1.04301349405049</v>
       </c>
       <c r="J21">
-        <v>1.015425313206276</v>
+        <v>1.01574038751979</v>
       </c>
       <c r="K21">
-        <v>1.029034185345127</v>
+        <v>1.029269987882847</v>
       </c>
       <c r="L21">
-        <v>1.009509121156069</v>
+        <v>1.009983989328088</v>
       </c>
       <c r="M21">
-        <v>1.035598920996831</v>
+        <v>1.03582636139341</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.036746538635171</v>
+        <v>1.036926543380643</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.031682227240166</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.031865838170513</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.01979752820761</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9808494351018785</v>
+        <v>0.9814813478259831</v>
       </c>
       <c r="D22">
-        <v>1.011412310945158</v>
+        <v>1.011958276327907</v>
       </c>
       <c r="E22">
-        <v>0.990806174859806</v>
+        <v>0.9915673168957433</v>
       </c>
       <c r="F22">
-        <v>1.018210587756282</v>
+        <v>1.018672921845581</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.041679576157043</v>
+        <v>1.042134965864344</v>
       </c>
       <c r="J22">
-        <v>1.012453800544291</v>
+        <v>1.013056424282267</v>
       </c>
       <c r="K22">
-        <v>1.026761027909548</v>
+        <v>1.027296502262415</v>
       </c>
       <c r="L22">
-        <v>1.006561990197451</v>
+        <v>1.007307698502043</v>
       </c>
       <c r="M22">
-        <v>1.033429720293002</v>
+        <v>1.033883323738912</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.035029750640279</v>
+        <v>1.035388750015209</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.0300614378668</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.030455647658755</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019308816927342</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9831968903777756</v>
+        <v>0.9836696347220169</v>
       </c>
       <c r="D23">
-        <v>1.012937108075364</v>
+        <v>1.013322181734393</v>
       </c>
       <c r="E23">
-        <v>0.9927081563830547</v>
+        <v>0.9933239906040783</v>
       </c>
       <c r="F23">
-        <v>1.019680259199953</v>
+        <v>1.020021232905041</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.042213971174572</v>
+        <v>1.042592563533632</v>
       </c>
       <c r="J23">
-        <v>1.014014432345523</v>
+        <v>1.014465961040521</v>
       </c>
       <c r="K23">
-        <v>1.027949582705953</v>
+        <v>1.028327454813383</v>
       </c>
       <c r="L23">
-        <v>1.008109266582998</v>
+        <v>1.008712962724924</v>
       </c>
       <c r="M23">
-        <v>1.034567649524454</v>
+        <v>1.034902355448559</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.035930351661175</v>
+        <v>1.036195250602705</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.03089211863942</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.031173945274226</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019561699880164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9922294622160532</v>
+        <v>0.9921025978432999</v>
       </c>
       <c r="D24">
-        <v>1.018832440260042</v>
+        <v>1.018605963578223</v>
       </c>
       <c r="E24">
-        <v>1.000051585597637</v>
+        <v>1.000117971353344</v>
       </c>
       <c r="F24">
-        <v>1.025364993592673</v>
+        <v>1.025245820948779</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.044262424032685</v>
+        <v>1.044348003177533</v>
       </c>
       <c r="J24">
-        <v>1.020029949025403</v>
+        <v>1.019908077966352</v>
       </c>
       <c r="K24">
-        <v>1.032536716142686</v>
+        <v>1.032314030487401</v>
       </c>
       <c r="L24">
-        <v>1.014077795395632</v>
+        <v>1.014143015599207</v>
       </c>
       <c r="M24">
-        <v>1.038960847353214</v>
+        <v>1.038843636725375</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.039407286923815</v>
+        <v>1.039314522423723</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.034127931257883</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.03398434737221</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020538099854335</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.002241042112191</v>
+        <v>1.001475918867364</v>
       </c>
       <c r="D25">
-        <v>1.025393559829401</v>
+        <v>1.024505781552476</v>
       </c>
       <c r="E25">
-        <v>1.008224451253082</v>
+        <v>1.007703873283941</v>
       </c>
       <c r="F25">
-        <v>1.031711049909818</v>
+        <v>1.031096737403618</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.046489227224836</v>
+        <v>1.046257647551043</v>
       </c>
       <c r="J25">
-        <v>1.026693220912094</v>
+        <v>1.025953714341715</v>
       </c>
       <c r="K25">
-        <v>1.037610059908132</v>
+        <v>1.036735225055295</v>
       </c>
       <c r="L25">
-        <v>1.020696420854778</v>
+        <v>1.020183762207511</v>
       </c>
       <c r="M25">
-        <v>1.043836258225577</v>
+        <v>1.043230760745863</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.043265843283071</v>
+        <v>1.042786634297102</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.037712179360009</v>
+        <v>1.037107159743652</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021608412093454</v>
       </c>
     </row>
   </sheetData>
